--- a/checkbook/Data Model/DataDictionary.xlsx
+++ b/checkbook/Data Model/DataDictionary.xlsx
@@ -50,8 +50,8 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
     <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
-    <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -70,7 +70,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>athiagarajan:</t>
         </r>
@@ -79,7 +79,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Name of the Table</t>
@@ -94,7 +94,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>athiagarajan:</t>
         </r>
@@ -103,7 +103,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Indicates the domain name like Payroll, Contracts etc</t>
@@ -118,7 +118,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>athiagarajan:</t>
         </r>
@@ -127,7 +127,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Brief description on what kind of data is stored in the table</t>
@@ -142,7 +142,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>athiagarajan:</t>
         </r>
@@ -151,7 +151,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Heap table (Default) or Append only  table or compressed table
@@ -7825,7 +7825,7 @@
       </rPr>
       <t>" tables will include all documents as is irrespective of the visibility.
 Refer to the "Tables" worksheet for the list of these tables.
-Primary key which is used to identify a record uniquely is mostly kept as a surrogate key which is a meaningless integer. 
+Primary key which is used to identify a record uniquely is mostly kept as a surrogate key which is a sequential integer without any special meaning.  
 Such a key if provided by the source is made use of rather than generating another one. Alternate keys are column(s) other than primary key which are used to identify a record uniquely.
 These are also mentioned against each table in "Tables" worksheet.</t>
     </r>
@@ -7835,7 +7835,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7855,26 +7855,6 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -7883,6 +7863,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8029,38 +8016,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8068,65 +8055,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8139,7 +8126,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{80270172-B507-4181-99B9-03E95E51C98B}" diskRevisions="1" revisionId="465" version="41">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{754A6DE8-7709-4C95-B37B-91AE37BE3170}" diskRevisions="1" revisionId="484" version="43">
   <header guid="{AB9580D8-241A-4669-9392-73D842CA78E7}" dateTime="2011-11-16T16:02:32" maxSheetId="12" userName="Kishore K. Vuppala" r:id="rId1">
     <sheetIdMap count="11">
       <sheetId val="1"/>
@@ -8755,49 +8742,79 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
+  <header guid="{5CFAD47E-E90B-4B05-9A84-4133AD3C3B70}" dateTime="2011-11-21T18:45:15" maxSheetId="12" userName="Kishore K. Vuppala" r:id="rId42" minRId="466">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{754A6DE8-7709-4C95-B37B-91AE37BE3170}" dateTime="2011-11-21T18:47:24" maxSheetId="12" userName="Kishore K. Vuppala" r:id="rId43">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Tables!$A$2:$E$89</formula>
     <oldFormula>Tables!$A$2:$E$89</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>'Chart of Accounts'!$A$3:$M$170</formula>
     <oldFormula>'Chart of Accounts'!$A$3:$M$170</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Vendor!$A$3:$M$45</formula>
     <oldFormula>Vendor!$A$3:$M$45</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Contracts!$A$4:$M$159</formula>
     <oldFormula>Contracts!$A$4:$M$159</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Disbursement!$A$3:$M$45</formula>
     <oldFormula>Disbursement!$A$3:$M$45</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Budget!$A$3:$M$21</formula>
     <oldFormula>Budget!$A$3:$M$21</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Revenue!$A$3:$M$76</formula>
     <oldFormula>Revenue!$A$3:$M$76</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>'Reference Tables'!$A$3:$M$140</formula>
     <oldFormula>'Reference Tables'!$A$3:$M$140</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>'Fact Tables'!$A$3:$M$3</formula>
     <oldFormula>'Fact Tables'!$A$3:$M$3</oldFormula>
   </rdn>
-  <rcv guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" action="add"/>
+  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="add"/>
 </revisions>
 </file>
 
@@ -10337,6 +10354,241 @@
 
 <file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="466" sId="1">
+    <oc r="A1" t="inlineStr">
+      <is>
+        <r>
+          <t>Data dictionary provides a detailed coverage of all tables used by NYC Checkbook2.0 application.
+Information is organized in several worksheets. 
+- First is the list of all tables with the information on what kind of data is stored, subject area/domain to 
+  which it belongs to and the column(s) which can act as alternate/unique keys to identify a record uniquely.
+- Domains which are included are Chart of Accounts(COA), Vendor(FMSV), Contracts(CON &amp; MAG),
+Disbursement(FMS), Budget, Revenue, Payroll (PMS) and finally the reference tables.
+As NYC Checkbook considers only the latest version of contracts and disbursement, which are made available to the public as is or with some masking
+for security reasons, few additional tables are created. These tables have the prefix as either "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>history_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>" or "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>all_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>".
+"</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>History_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>" tables will have all the versions of the document. "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>All_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>" tables will include all documents as is irrespective of the visibility.
+Refer to the "Tables" worksheet for the list of these tables.
+Primary key which is used to identify a record uniquely is mostly kept as a surrogate key which is a meaningless integer. 
+Such a key if provided by the source is made use of rather than generating another one. Alternate keys are column(s) other than primary key which are used to identify a record uniquely.
+These are also mentioned against each table in "Tables" worksheet.</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="A1" t="inlineStr">
+      <is>
+        <r>
+          <t>Data dictionary provides a detailed coverage of all tables used by NYC Checkbook2.0 application.
+Information is organized in several worksheets. 
+- First is the list of all tables with the information on what kind of data is stored, subject area/domain to 
+  which it belongs to and the column(s) which can act as alternate/unique keys to identify a record uniquely.
+- Domains which are included are Chart of Accounts(COA), Vendor(FMSV), Contracts(CON &amp; MAG),
+Disbursement(FMS), Budget, Revenue, Payroll (PMS) and finally the reference tables.
+As NYC Checkbook considers only the latest version of contracts and disbursement, which are made available to the public as is or with some masking
+for security reasons, few additional tables are created. These tables have the prefix as either "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>history_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>" or "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>all_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>".
+"</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>History_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>" tables will have all the versions of the document. "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>All_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Cambria"/>
+            <family val="1"/>
+          </rPr>
+          <t>" tables will include all documents as is irrespective of the visibility.
+Refer to the "Tables" worksheet for the list of these tables.
+Primary key which is used to identify a record uniquely is mostly kept as a surrogate key which is a sequential integer without any special meaning.  
+Such a key if provided by the source is made use of rather than generating another one. Alternate keys are column(s) other than primary key which are used to identify a record uniquely.
+These are also mentioned against each table in "Tables" worksheet.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tables!$A$2:$E$89</formula>
+    <oldFormula>Tables!$A$2:$E$89</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Chart of Accounts'!$A$3:$M$170</formula>
+    <oldFormula>'Chart of Accounts'!$A$3:$M$170</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Vendor!$A$3:$M$45</formula>
+    <oldFormula>Vendor!$A$3:$M$45</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Contracts!$A$4:$M$159</formula>
+    <oldFormula>Contracts!$A$4:$M$159</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Disbursement!$A$3:$M$45</formula>
+    <oldFormula>Disbursement!$A$3:$M$45</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Budget!$A$3:$M$21</formula>
+    <oldFormula>Budget!$A$3:$M$21</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Revenue!$A$3:$M$76</formula>
+    <oldFormula>Revenue!$A$3:$M$76</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Reference Tables'!$A$3:$M$140</formula>
+    <oldFormula>'Reference Tables'!$A$3:$M$140</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Fact Tables'!$A$3:$M$3</formula>
+    <oldFormula>'Fact Tables'!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rrc rId="309" sId="2" ref="A19:XFD19" action="insertRow"/>
   <rcc rId="310" sId="2">
     <nc r="B19" t="inlineStr">
@@ -10414,7 +10666,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -10454,49 +10706,6 @@
     <oldFormula>'Fact Tables'!$A$3:$M$3</oldFormula>
   </rdn>
   <rcv guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tables!$A$2:$E$72</formula>
-    <oldFormula>Tables!$A$2:$E$72</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Chart of Accounts'!$A$3:$M$170</formula>
-    <oldFormula>'Chart of Accounts'!$A$3:$M$170</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Vendor!$A$3:$M$45</formula>
-    <oldFormula>Vendor!$A$3:$M$45</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Contracts!$A$4:$M$159</formula>
-    <oldFormula>Contracts!$A$4:$M$159</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Disbursement!$A$3:$M$45</formula>
-    <oldFormula>Disbursement!$A$3:$M$45</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Budget!$A$3:$M$21</formula>
-    <oldFormula>Budget!$A$3:$M$21</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Revenue!$A$3:$M$76</formula>
-    <oldFormula>Revenue!$A$3:$M$76</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Reference Tables'!$A$3:$M$140</formula>
-    <oldFormula>'Reference Tables'!$A$3:$M$140</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Fact Tables'!$A$3:$M$3</formula>
-    <oldFormula>'Fact Tables'!$A$3:$M$3</oldFormula>
-  </rdn>
-  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="add"/>
 </revisions>
 </file>
 
@@ -10544,6 +10753,49 @@
 </file>
 
 <file path=xl/revisions/revisionLog161111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tables!$A$2:$E$72</formula>
+    <oldFormula>Tables!$A$2:$E$72</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Chart of Accounts'!$A$3:$M$170</formula>
+    <oldFormula>'Chart of Accounts'!$A$3:$M$170</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Vendor!$A$3:$M$45</formula>
+    <oldFormula>Vendor!$A$3:$M$45</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Contracts!$A$4:$M$159</formula>
+    <oldFormula>Contracts!$A$4:$M$159</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Disbursement!$A$3:$M$45</formula>
+    <oldFormula>Disbursement!$A$3:$M$45</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Budget!$A$3:$M$21</formula>
+    <oldFormula>Budget!$A$3:$M$21</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Revenue!$A$3:$M$76</formula>
+    <oldFormula>Revenue!$A$3:$M$76</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Reference Tables'!$A$3:$M$140</formula>
+    <oldFormula>'Reference Tables'!$A$3:$M$140</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Fact Tables'!$A$3:$M$3</formula>
+    <oldFormula>'Fact Tables'!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1611111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcv guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_F768F977_CCD9_4FD4_A49F_E3B56A4CB470_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -11031,6 +11283,49 @@
 
 <file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcv guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tables!$A$2:$E$89</formula>
+    <oldFormula>Tables!$A$2:$E$89</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Chart of Accounts'!$A$3:$M$170</formula>
+    <oldFormula>'Chart of Accounts'!$A$3:$M$170</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Vendor!$A$3:$M$45</formula>
+    <oldFormula>Vendor!$A$3:$M$45</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Contracts!$A$4:$M$159</formula>
+    <oldFormula>Contracts!$A$4:$M$159</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Disbursement!$A$3:$M$45</formula>
+    <oldFormula>Disbursement!$A$3:$M$45</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Budget!$A$3:$M$21</formula>
+    <oldFormula>Budget!$A$3:$M$21</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Revenue!$A$3:$M$76</formula>
+    <oldFormula>Revenue!$A$3:$M$76</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Reference Tables'!$A$3:$M$140</formula>
+    <oldFormula>'Reference Tables'!$A$3:$M$140</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Fact Tables'!$A$3:$M$3</formula>
+    <oldFormula>'Fact Tables'!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rcv guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="409" sId="2">
     <oc r="E73" t="inlineStr">
       <is>
@@ -11097,7 +11392,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rrc rId="258" sId="2" ref="A15:XFD15" action="insertRow"/>
   <rfmt sheetId="2" sqref="A15" start="0" length="0">
@@ -11367,7 +11662,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog181111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rfmt sheetId="1" sqref="A1:XFD7">
     <dxf>
@@ -12103,25 +12398,25 @@
     <col min="1" max="1" width="80.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="44" customFormat="1" ht="52.2" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:1" s="45" customFormat="1" ht="52.2" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="44" customFormat="1" ht="52.2" customHeight="1"/>
-    <row r="3" spans="1:1" s="44" customFormat="1" ht="52.2" customHeight="1"/>
-    <row r="4" spans="1:1" s="44" customFormat="1" ht="52.2" customHeight="1"/>
-    <row r="5" spans="1:1" s="44" customFormat="1" ht="52.2" customHeight="1"/>
+    <row r="2" spans="1:1" s="45" customFormat="1" ht="52.2" customHeight="1"/>
+    <row r="3" spans="1:1" s="45" customFormat="1" ht="52.2" customHeight="1"/>
+    <row r="4" spans="1:1" s="45" customFormat="1" ht="52.2" customHeight="1"/>
+    <row r="5" spans="1:1" s="45" customFormat="1" ht="52.2" customHeight="1"/>
     <row r="6" spans="1:1" s="4" customFormat="1"/>
     <row r="7" spans="1:1" s="4" customFormat="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -12159,12 +12454,12 @@
     <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
@@ -16100,14 +16395,14 @@
   </sheetData>
   <autoFilter ref="A3:M140"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M140"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16147,12 +16442,12 @@
     <col min="12" max="12" width="31.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="69">
       <c r="A3" s="13" t="s">
         <v>4</v>
@@ -16795,13 +17090,13 @@
   </sheetData>
   <autoFilter ref="A3:M25"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="78" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M25"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="78" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16821,8 +17116,8 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" activeCellId="1" sqref="E73 E75"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16834,8 +17129,8 @@
     <col min="5" max="5" width="60.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" s="46" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -18019,7 +18314,7 @@
       <c r="D73" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="46"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
@@ -18051,7 +18346,7 @@
       <c r="D75" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="46"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
@@ -18290,19 +18585,19 @@
   </sheetData>
   <autoFilter ref="A2:E89"/>
   <customSheetViews>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A2:E89"/>
+    </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E75" activeCellId="1" sqref="E73 E75"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:E89"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:E72"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -18341,12 +18636,12 @@
     <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1" ht="64.8" customHeight="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1" ht="64.8" customHeight="1"/>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
@@ -23212,7 +23507,7 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" filter="1" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23224,7 +23519,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" filter="1" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" filter="1" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23274,12 +23569,12 @@
     <col min="14" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1" ht="14.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="14.4">
+      <c r="A1" s="45" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1" ht="14.4"/>
+    <row r="2" spans="1:13" s="46" customFormat="1" ht="14.4"/>
     <row r="3" spans="1:13" ht="27.6">
       <c r="A3" s="13" t="s">
         <v>4</v>
@@ -24516,13 +24811,13 @@
   </sheetData>
   <autoFilter ref="A3:M45"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M45"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24565,13 +24860,13 @@
     <col min="13" max="13" width="27.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="46" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
-    <row r="3" spans="1:13" s="45" customFormat="1" ht="57" customHeight="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
+    <row r="3" spans="1:13" s="46" customFormat="1" ht="57" customHeight="1"/>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>4</v>
@@ -29155,14 +29450,14 @@
   </sheetData>
   <autoFilter ref="A4:M159"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="65" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A4:M159"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="65" showAutoFilter="1">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29203,12 +29498,12 @@
     <col min="13" max="13" width="19.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
     <row r="3" spans="1:13" ht="28.8">
       <c r="A3" s="1" t="s">
         <v>4</v>
@@ -30495,13 +30790,13 @@
   </sheetData>
   <autoFilter ref="A3:M45"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M45"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30538,12 +30833,12 @@
     <col min="13" max="13" width="21.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
     <row r="3" spans="1:13" ht="28.8">
       <c r="A3" s="1" t="s">
         <v>4</v>
@@ -31122,14 +31417,14 @@
   </sheetData>
   <autoFilter ref="A3:M21"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M21"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31174,12 +31469,12 @@
     <col min="14" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="27.6">
       <c r="A3" s="13" t="s">
         <v>4</v>
@@ -33231,14 +33526,14 @@
   </sheetData>
   <autoFilter ref="A3:M76"/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="76" showAutoFilter="1">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M76"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="76" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33278,12 +33573,12 @@
     <col min="13" max="13" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1"/>
+    <row r="2" spans="1:13" s="46" customFormat="1"/>
     <row r="3" spans="1:13" s="16" customFormat="1" ht="27.6">
       <c r="A3" s="13" t="s">
         <v>4</v>
@@ -33686,12 +33981,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="85">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
       <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="85">
       <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/checkbook/Data Model/DataDictionary.xlsx
+++ b/checkbook/Data Model/DataDictionary.xlsx
@@ -73,10 +73,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="2"/>
+    <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
+    <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
     <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
-    <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
-    <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
-    <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="10"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -7454,7 +7454,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E5DD303C-65B6-42CE-B1C4-D442DB814DE0}" diskRevisions="1" revisionId="4" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A6187A50-8DA9-4D79-8E67-E7C401C0E25B}" diskRevisions="1" revisionId="14" version="4">
   <header guid="{C99DDCD8-9C3B-4B35-A46B-11BEE8D90BCF}" dateTime="2012-12-13T14:56:59" maxSheetId="13" userName="Pratap Varma" r:id="rId1">
     <sheetIdMap count="12">
       <sheetId val="1"/>
@@ -7488,6 +7488,22 @@
     </sheetIdMap>
   </header>
   <header guid="{E5DD303C-65B6-42CE-B1C4-D442DB814DE0}" dateTime="2012-12-13T16:27:19" maxSheetId="13" userName="Pratap Varma" r:id="rId3" minRId="2" maxRId="4">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A6187A50-8DA9-4D79-8E67-E7C401C0E25B}" dateTime="2012-12-13T19:31:26" maxSheetId="13" userName="Pratap Varma" r:id="rId4">
     <sheetIdMap count="12">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -7711,8 +7727,57 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tables!$A$2:$F$95</formula>
+    <oldFormula>Tables!$A$2:$F$95</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Chart of Accounts'!$A$3:$M$3</formula>
+    <oldFormula>'Chart of Accounts'!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Vendor!$A$3:$M$3</formula>
+    <oldFormula>Vendor!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Contracts!$A$4:$M$258</formula>
+    <oldFormula>Contracts!$A$4:$M$258</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Disbursement!$A$3:$M$57</formula>
+    <oldFormula>Disbursement!$A$3:$M$57</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Budget!$A$3:$M$35</formula>
+    <oldFormula>Budget!$A$3:$M$35</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Revenue!$A$3:$M$77</formula>
+    <oldFormula>Revenue!$A$3:$M$77</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Payroll!$A$3:$M$81</formula>
+    <oldFormula>Payroll!$A$3:$M$81</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Reference Tables'!$A$3:$M$92</formula>
+    <oldFormula>'Reference Tables'!$A$3:$M$92</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Fact Tables'!$A$3:$M$390</formula>
+    <oldFormula>'Fact Tables'!$A$3:$M$390</oldFormula>
+  </rdn>
+  <rcv guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{A6187A50-8DA9-4D79-8E67-E7C401C0E25B}" name="Pratap Varma" id="-279991011" dateTime="2012-12-13T19:31:15"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8026,22 +8091,22 @@
     <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
@@ -10613,31 +10678,31 @@
   </sheetData>
   <autoFilter ref="A3:M92"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M140"/>
+      <autoFilter ref="A3:M92"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
+      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M158"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
-      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A3:M92"/>
+      <autoFilter ref="A3:M140"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -36934,11 +36999,18 @@
   </sheetData>
   <autoFilter ref="A3:M390"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M25"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:M390"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="78" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:XFD343"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -36946,18 +37018,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M130"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="78" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:XFD343"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A3:M390"/>
+      <autoFilter ref="A3:M25"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -36979,15 +37044,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" state="hidden">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -37000,7 +37065,8 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="95" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38582,39 +38648,33 @@
   </sheetData>
   <autoFilter ref="A2:F95"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <pane ySplit="94" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:E89"/>
+      <autoFilter ref="A2:F95"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:F123"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:E100"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:F123"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" filter="1" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:F96">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="ref_data_source"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A2:E89"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -44223,6 +44283,22 @@
   </sheetData>
   <autoFilter ref="A3:M197"/>
   <customSheetViews>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:M197"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" topLeftCell="A181">
+      <selection activeCell="B202" sqref="B202"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
+      <pane xSplit="4" ySplit="4" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:M184"/>
+    </customSheetView>
     <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" filter="1" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
@@ -44234,22 +44310,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
-      <pane xSplit="4" ySplit="4" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M184"/>
-    </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" topLeftCell="A181">
-      <selection activeCell="B202" sqref="B202"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -45615,11 +45675,16 @@
   </sheetData>
   <autoFilter ref="A3:M47"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M45"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:M47"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73" showAutoFilter="1" topLeftCell="A18">
+      <selection activeCell="E35" sqref="E35:K35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:M47"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
@@ -45627,16 +45692,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M47"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73" showAutoFilter="1" topLeftCell="A18">
-      <selection activeCell="E35" sqref="E35:K35"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M47"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M47"/>
+      <autoFilter ref="A3:M45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -52800,32 +52860,32 @@
   </sheetData>
   <autoFilter ref="A4:M258"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:M159"/>
+      <autoFilter ref="A4:M258"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="65" showAutoFilter="1">
+      <pane xSplit="3" ySplit="4" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B207" sqref="B207:B209"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A4:M311"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD59"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A4:M163"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="65" showAutoFilter="1">
-      <pane xSplit="3" ySplit="4" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B207" sqref="B207:B209"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A4:M311"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD3"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A4:M258"/>
+      <autoFilter ref="A4:M159"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -54455,11 +54515,15 @@
   </sheetData>
   <autoFilter ref="A3:M57"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M45"/>
+      <autoFilter ref="A3:M57"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="80" showAutoFilter="1" topLeftCell="A42">
+      <selection activeCell="A53" sqref="A53"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:M55"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
@@ -54467,15 +54531,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M48"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="80" showAutoFilter="1" topLeftCell="A42">
-      <selection activeCell="A53" sqref="A53"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M55"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M57"/>
+      <autoFilter ref="A3:M45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -56209,30 +56269,30 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M21"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73">
+      <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M32"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73">
-      <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A3:M21"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -58504,32 +58564,32 @@
   </sheetData>
   <autoFilter ref="A3:M77"/>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M76"/>
+      <autoFilter ref="A3:M77"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:M77"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="76" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="L76" sqref="L76"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M78"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A3:M77"/>
-    </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A3:M77"/>
+      <autoFilter ref="A3:M76"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -60641,23 +60701,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
-      <selection activeCell="K7" sqref="K7"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="85" topLeftCell="A59">
+      <selection activeCell="A82" sqref="A82"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="85">
       <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="85" topLeftCell="A59">
-      <selection activeCell="A82" sqref="A82"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
+      <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
     </customSheetView>

--- a/checkbook/Data Model/DataDictionary.xlsx
+++ b/checkbook/Data Model/DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="14700" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="14700" windowHeight="7425" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="General Notes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Payroll!$A$3:$M$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Reference Tables'!$A$3:$M$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Revenue!$A$3:$M$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$2:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendor!$A$3:$M$3</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="6" hidden="1">Budget!$A$3:$M$35</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="2" hidden="1">'Chart of Accounts'!$A$3:$M$3</definedName>
@@ -39,7 +39,7 @@
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="8" hidden="1">Payroll!$A$3:$M$81</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="9" hidden="1">'Reference Tables'!$A$3:$M$92</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="7" hidden="1">Revenue!$A$3:$M$77</definedName>
-    <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="1" hidden="1">Tables!$A$2:$F$95</definedName>
+    <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="1" hidden="1">Tables!$A$2:$E$2</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="3" hidden="1">Vendor!$A$3:$M$3</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="6" hidden="1">Budget!$A$3:$M$35</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="2" hidden="1">'Chart of Accounts'!$A$3:$M$197</definedName>
@@ -73,7 +73,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="2"/>
+    <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="11"/>
     <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
     <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
     <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
@@ -7454,7 +7454,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A6187A50-8DA9-4D79-8E67-E7C401C0E25B}" diskRevisions="1" revisionId="14" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C69A5CFF-6D58-43CC-8DCD-7814EE6697EF}" diskRevisions="1" revisionId="14" version="2">
   <header guid="{C99DDCD8-9C3B-4B35-A46B-11BEE8D90BCF}" dateTime="2012-12-13T14:56:59" maxSheetId="13" userName="Pratap Varma" r:id="rId1">
     <sheetIdMap count="12">
       <sheetId val="1"/>
@@ -7503,7 +7503,7 @@
       <sheetId val="12"/>
     </sheetIdMap>
   </header>
-  <header guid="{A6187A50-8DA9-4D79-8E67-E7C401C0E25B}" dateTime="2012-12-13T19:31:26" maxSheetId="13" userName="Pratap Varma" r:id="rId4">
+  <header guid="{C69A5CFF-6D58-43CC-8DCD-7814EE6697EF}" dateTime="2012-12-18T11:15:18" maxSheetId="13" userName="Pratap Varma" r:id="rId4">
     <sheetIdMap count="12">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -7731,7 +7731,7 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" action="delete"/>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tables!$A$2:$F$95</formula>
+    <formula>Tables!$A$2:$E$2</formula>
     <oldFormula>Tables!$A$2:$F$95</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="3" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
@@ -7776,7 +7776,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{A6187A50-8DA9-4D79-8E67-E7C401C0E25B}" name="Pratap Varma" id="-279991011" dateTime="2012-12-13T19:31:15"/>
+  <userInfo guid="{E5DD303C-65B6-42CE-B1C4-D442DB814DE0}" name="Pratap Varma" id="-280016757" dateTime="2012-12-18T11:15:18"/>
 </users>
 </file>
 
@@ -10717,7 +10717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD390"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -37064,9 +37064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="95" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38646,14 +38646,14 @@
       <c r="E95" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F95"/>
+  <autoFilter ref="A2:E2"/>
   <customSheetViews>
     <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
       <pane ySplit="94" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:F95"/>
+      <autoFilter ref="A2:E2"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" showAutoFilter="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>

--- a/checkbook/Data Model/DataDictionary.xlsx
+++ b/checkbook/Data Model/DataDictionary.xlsx
@@ -23,9 +23,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Budget!$A$3:$M$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chart of Accounts'!$A$3:$M$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Contracts!$A$4:$M$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Contracts!$A$4:$M$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Disbursement!$A$3:$M$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Fact Tables'!$A$3:$M$390</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Fact Tables'!$A$3:$M$394</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Payroll!$A$3:$M$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Reference Tables'!$A$3:$M$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Revenue!$A$3:$M$77</definedName>
@@ -33,9 +33,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendor!$A$3:$M$3</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="6" hidden="1">Budget!$A$3:$M$35</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="2" hidden="1">'Chart of Accounts'!$A$3:$M$3</definedName>
-    <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="4" hidden="1">Contracts!$A$4:$M$258</definedName>
+    <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="4" hidden="1">Contracts!$A$4:$M$262</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="5" hidden="1">Disbursement!$A$3:$M$57</definedName>
-    <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="10" hidden="1">'Fact Tables'!$A$3:$M$390</definedName>
+    <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="10" hidden="1">'Fact Tables'!$A$3:$M$394</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="8" hidden="1">Payroll!$A$3:$M$119</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="9" hidden="1">'Reference Tables'!$A$3:$M$92</definedName>
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="7" hidden="1">Revenue!$A$3:$M$77</definedName>
@@ -43,9 +43,9 @@
     <definedName name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" localSheetId="3" hidden="1">Vendor!$A$3:$M$3</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="6" hidden="1">Budget!$A$3:$M$35</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="2" hidden="1">'Chart of Accounts'!$A$3:$M$197</definedName>
-    <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="4" hidden="1">Contracts!$A$4:$M$258</definedName>
+    <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="4" hidden="1">Contracts!$A$4:$M$262</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="5" hidden="1">Disbursement!$A$3:$M$54</definedName>
-    <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="10" hidden="1">'Fact Tables'!$3:$390</definedName>
+    <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="10" hidden="1">'Fact Tables'!$3:$394</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="8" hidden="1">Payroll!$A$3:$M$119</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="9" hidden="1">'Reference Tables'!$A$3:$M$92</definedName>
     <definedName name="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" localSheetId="7" hidden="1">Revenue!$A$3:$M$77</definedName>
@@ -55,7 +55,7 @@
     <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="2" hidden="1">'Chart of Accounts'!$A$3:$M$3</definedName>
     <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="4" hidden="1">Contracts!$A$4:$M$4</definedName>
     <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="5" hidden="1">Disbursement!$A$3:$M$54</definedName>
-    <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="10" hidden="1">'Fact Tables'!$A$3:$M$147</definedName>
+    <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="10" hidden="1">'Fact Tables'!$A$3:$M$151</definedName>
     <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="8" hidden="1">Payroll!$A$3:$M$3</definedName>
     <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="9" hidden="1">'Reference Tables'!$A$3:$M$3</definedName>
     <definedName name="Z_843A0AF2_4DBE_48BC_A9DB_1D590AF46394_.wvu.FilterData" localSheetId="7" hidden="1">Revenue!$A$3:$M$77</definedName>
@@ -73,16 +73,16 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="9"/>
+    <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="2"/>
+    <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
+    <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
     <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
-    <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
-    <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8299" uniqueCount="2093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8339" uniqueCount="2105">
   <si>
     <t>Table Name</t>
   </si>
@@ -6594,6 +6594,42 @@
   </si>
   <si>
     <t>Composite key of agency_id &amp; department_id</t>
+  </si>
+  <si>
+    <t>Identifies master contract number</t>
+  </si>
+  <si>
+    <t>contrac_vendor_id</t>
+  </si>
+  <si>
+    <t>contract_agency_id</t>
+  </si>
+  <si>
+    <t>master_contract_agency_id</t>
+  </si>
+  <si>
+    <t>Identifies contract vendor</t>
+  </si>
+  <si>
+    <t>Identifies contract agency</t>
+  </si>
+  <si>
+    <t>Identifies master contract agency</t>
+  </si>
+  <si>
+    <t>registered_contract_max_amount</t>
+  </si>
+  <si>
+    <t>Maximum contract amount for CT1 or CTA1</t>
+  </si>
+  <si>
+    <t>Idenitfies vendor</t>
+  </si>
+  <si>
+    <t>fms_contract_number</t>
+  </si>
+  <si>
+    <t>original_master_agreement_id</t>
   </si>
 </sst>
 </file>
@@ -7460,7 +7496,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" diskRevisions="1" revisionId="13" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6976EAB8-6962-447C-98CC-191C3E618C5F}" diskRevisions="1" revisionId="72" version="3">
   <header guid="{9FF42765-F55B-491A-A86E-ECBF559A637A}" dateTime="2012-12-19T10:49:43" maxSheetId="13" userName="Pratap Varma" r:id="rId1">
     <sheetIdMap count="12">
       <sheetId val="1"/>
@@ -7478,6 +7514,22 @@
     </sheetIdMap>
   </header>
   <header guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" dateTime="2012-12-19T11:23:25" maxSheetId="13" userName="Pratap Varma" r:id="rId2" minRId="1" maxRId="13">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6976EAB8-6962-447C-98CC-191C3E618C5F}" dateTime="2013-04-26T17:06:11" maxSheetId="13" userName="Pratap Varma" r:id="rId3" minRId="14" maxRId="62">
     <sheetIdMap count="12">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -7733,8 +7785,972 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="14" sId="11" ref="A111:XFD111" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$A$3:$XFD$390" dn="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" sId="11"/>
+  </rrc>
+  <rcc rId="15" sId="11">
+    <nc r="A111" t="inlineStr">
+      <is>
+        <t>disbursement_line_item_details</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="11">
+    <nc r="C111" t="inlineStr">
+      <is>
+        <t>varchar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="11">
+    <nc r="B111" t="inlineStr">
+      <is>
+        <t>master_contract_number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="11">
+    <nc r="E111" t="inlineStr">
+      <is>
+        <t>Identifies master contract number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="11">
+    <nc r="J111" t="inlineStr">
+      <is>
+        <t>Public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="20" sId="11" ref="A112:XFD112" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$A$3:$XFD$391" dn="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" sId="11"/>
+  </rrc>
+  <rrc rId="21" sId="11" ref="A112:XFD112" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$A$3:$XFD$392" dn="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" sId="11"/>
+  </rrc>
+  <rrc rId="22" sId="11" ref="A112:XFD112" action="insertRow">
+    <undo index="0" exp="area" ref3D="1" dr="$A$3:$XFD$393" dn="Z_7A86E65E_CCCB_4C01_8F2E_D18114648424_.wvu.FilterData" sId="11"/>
+  </rrc>
+  <rcc rId="23" sId="11">
+    <nc r="A112" t="inlineStr">
+      <is>
+        <t>disbursement_line_item_details</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="11">
+    <nc r="A113" t="inlineStr">
+      <is>
+        <t>disbursement_line_item_details</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="11">
+    <nc r="A114" t="inlineStr">
+      <is>
+        <t>disbursement_line_item_details</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="11">
+    <nc r="B112" t="inlineStr">
+      <is>
+        <t>contrac_vendor_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="11">
+    <nc r="B113" t="inlineStr">
+      <is>
+        <t>contract_agency_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="11">
+    <nc r="B114" t="inlineStr">
+      <is>
+        <t>master_contract_agency_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="11">
+    <nc r="C112" t="inlineStr">
+      <is>
+        <t>integer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="11">
+    <nc r="C113" t="inlineStr">
+      <is>
+        <t>integer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="11">
+    <nc r="C114" t="inlineStr">
+      <is>
+        <t>integer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="11">
+    <nc r="E112" t="inlineStr">
+      <is>
+        <t>Identifies contract vendor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="11">
+    <nc r="E113" t="inlineStr">
+      <is>
+        <t>Identifies contract agency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="11">
+    <nc r="E114" t="inlineStr">
+      <is>
+        <t>Identifies master contract agency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="11">
+    <nc r="J112" t="inlineStr">
+      <is>
+        <t>Public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="11">
+    <nc r="J113" t="inlineStr">
+      <is>
+        <t>Public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="11">
+    <nc r="J114" t="inlineStr">
+      <is>
+        <t>Public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="38" sId="5" ref="A216:XFD216" action="insertRow"/>
+  <rcc rId="39" sId="5">
+    <nc r="A216" t="inlineStr">
+      <is>
+        <t>pending_contracts</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="5">
+    <nc r="B216" t="inlineStr">
+      <is>
+        <t>registered_contract_max_amount</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="5">
+    <nc r="C216" t="inlineStr">
+      <is>
+        <t>numeric(15,2)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="5">
+    <nc r="E216" t="inlineStr">
+      <is>
+        <t>Maximum contract amount for CT1 or CTA1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="43" sId="5" ref="A219:XFD219" action="insertRow"/>
+  <rcc rId="44" sId="5">
+    <nc r="A219" t="inlineStr">
+      <is>
+        <t>pending_contracts</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="5">
+    <nc r="J216" t="inlineStr">
+      <is>
+        <t>public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="5">
+    <nc r="B219" t="inlineStr">
+      <is>
+        <t>vendor_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="5">
+    <nc r="C219" t="inlineStr">
+      <is>
+        <t>integer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="5">
+    <nc r="E219" t="inlineStr">
+      <is>
+        <t>Idenitfies vendor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="5">
+    <nc r="J219" t="inlineStr">
+      <is>
+        <t>public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="50" sId="5" ref="A240:XFD240" action="insertRow"/>
+  <rcc rId="51" sId="5">
+    <nc r="A240" t="inlineStr">
+      <is>
+        <t>pending_contracts</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="5">
+    <nc r="C240" t="inlineStr">
+      <is>
+        <t>varchar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" sqref="E240" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="53" sId="5">
+    <nc r="J240" t="inlineStr">
+      <is>
+        <t>public</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="5">
+    <nc r="B240" t="inlineStr">
+      <is>
+        <t>fms_contract_number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="5">
+    <nc r="E240" t="inlineStr">
+      <is>
+        <t>Identifies contract number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="56" sId="5" ref="A259:XFD259" action="insertRow"/>
+  <rm rId="57" sheetId="5" source="A260:XFD260" destination="A259:XFD259" sourceSheetId="5">
+    <rfmt sheetId="5" xfDxf="1" sqref="A259:XFD259" start="0" length="0"/>
+    <rfmt sheetId="5" sqref="A259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="B259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="C259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="D259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="E259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="F259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="G259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="H259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="I259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="J259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="K259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="L259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="M259" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="58" sId="5" odxf="1" dxf="1">
+    <nc r="A260" t="inlineStr">
+      <is>
+        <t>pending_contracts</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" sqref="B260" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="59" sId="5" odxf="1" dxf="1">
+    <nc r="C260" t="inlineStr">
+      <is>
+        <t>bigint</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" sqref="D260" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="60" sId="5" odxf="1" dxf="1">
+    <nc r="E260" t="inlineStr">
+      <is>
+        <t>Identifies original agreement</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="5" sqref="F260" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="G260" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="H260" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" sqref="I260" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="61" sId="5" odxf="1" dxf="1">
+    <nc r="J260" t="inlineStr">
+      <is>
+        <t>public</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="62" sId="5">
+    <nc r="B260" t="inlineStr">
+      <is>
+        <t>original_master_agreement_id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tables!$A$2:$E$2</formula>
+    <oldFormula>Tables!$A$2:$E$2</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Chart of Accounts'!$A$3:$M$3</formula>
+    <oldFormula>'Chart of Accounts'!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Vendor!$A$3:$M$3</formula>
+    <oldFormula>Vendor!$A$3:$M$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Contracts!$A$4:$M$262</formula>
+    <oldFormula>Contracts!$A$4:$M$262</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Disbursement!$A$3:$M$57</formula>
+    <oldFormula>Disbursement!$A$3:$M$57</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Budget!$A$3:$M$35</formula>
+    <oldFormula>Budget!$A$3:$M$35</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Revenue!$A$3:$M$77</formula>
+    <oldFormula>Revenue!$A$3:$M$77</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Payroll!$A$3:$M$119</formula>
+    <oldFormula>Payroll!$A$3:$M$119</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Reference Tables'!$A$3:$M$92</formula>
+    <oldFormula>'Reference Tables'!$A$3:$M$92</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_00C7CAED_15A0_4F6F_B460_E637CABE0590_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Fact Tables'!$A$3:$M$394</formula>
+    <oldFormula>'Fact Tables'!$A$3:$M$394</oldFormula>
+  </rdn>
+  <rcv guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+  <userInfo guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" name="Pratap Varma" id="-280007288" dateTime="2013-04-09T09:57:01"/>
+  <userInfo guid="{6976EAB8-6962-447C-98CC-191C3E618C5F}" name="Pratap Varma" id="-279991079" dateTime="2013-04-26T16:19:02"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8053,7 +9069,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8063,7 +9079,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
@@ -10641,12 +11657,11 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M92"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
+      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A3:M140"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
@@ -10655,11 +11670,12 @@
       <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M158"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
-      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A3:M140"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -10672,10 +11688,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD390"/>
+  <dimension ref="A1:XFD394"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29876,14 +30892,14 @@
         <v>1545</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>1498</v>
+        <v>1810</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="20" t="s">
-        <v>1532</v>
+        <v>2093</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
@@ -29901,14 +30917,14 @@
         <v>1545</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>159</v>
+        <v>2094</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>160</v>
+        <v>1298</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="20" t="s">
-        <v>1533</v>
+        <v>2097</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
@@ -29921,19 +30937,19 @@
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
     </row>
-    <row r="113" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
         <v>1545</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>201</v>
+        <v>2095</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>1298</v>
       </c>
       <c r="D113" s="20"/>
-      <c r="E113" s="49" t="s">
-        <v>694</v>
+      <c r="E113" s="20" t="s">
+        <v>2098</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
@@ -29951,14 +30967,14 @@
         <v>1545</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>266</v>
+        <v>2096</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>220</v>
+        <v>1298</v>
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="20" t="s">
-        <v>1526</v>
+        <v>2099</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
@@ -29976,14 +30992,14 @@
         <v>1545</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>265</v>
+        <v>1498</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="20" t="s">
-        <v>1551</v>
+        <v>1532</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
@@ -29996,25 +31012,23 @@
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
     </row>
-    <row r="116" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
         <v>1545</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>1408</v>
+        <v>159</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="20" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
-      <c r="H116" s="23" t="s">
-        <v>1536</v>
-      </c>
+      <c r="H116" s="20"/>
       <c r="I116" s="20"/>
       <c r="J116" s="20" t="s">
         <v>1252</v>
@@ -30023,19 +31037,19 @@
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
     </row>
-    <row r="117" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>1545</v>
       </c>
       <c r="B117" s="58" t="s">
-        <v>1499</v>
+        <v>201</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>113</v>
+        <v>1298</v>
       </c>
       <c r="D117" s="20"/>
-      <c r="E117" s="20" t="s">
-        <v>1534</v>
+      <c r="E117" s="49" t="s">
+        <v>694</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
@@ -30053,18 +31067,18 @@
         <v>1545</v>
       </c>
       <c r="B118" s="58" t="s">
-        <v>1555</v>
+        <v>266</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="20" t="s">
-        <v>1560</v>
+        <v>1526</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
-      <c r="H118" s="23"/>
+      <c r="H118" s="20"/>
       <c r="I118" s="20"/>
       <c r="J118" s="20" t="s">
         <v>1252</v>
@@ -30078,18 +31092,18 @@
         <v>1545</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>1556</v>
+        <v>265</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="20" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
-      <c r="H119" s="23"/>
+      <c r="H119" s="20"/>
       <c r="I119" s="20"/>
       <c r="J119" s="20" t="s">
         <v>1252</v>
@@ -30098,171 +31112,159 @@
       <c r="L119" s="20"/>
       <c r="M119" s="20"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B120" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" s="21"/>
-      <c r="E120" s="22" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
+        <v>1545</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="23" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I120" s="20"/>
       <c r="J120" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="M120" s="21"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+    </row>
+    <row r="121" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B121" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+    </row>
+    <row r="122" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B122" s="58" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C122" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="20" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K121" s="22"/>
-      <c r="L121" s="22" t="s">
-        <v>1322</v>
-      </c>
-      <c r="M121" s="21"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B122" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="I122" s="21"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="20"/>
       <c r="J122" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22" t="s">
-        <v>1323</v>
-      </c>
-      <c r="M122" s="21"/>
-    </row>
-    <row r="123" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+    </row>
+    <row r="123" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B123" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
+        <v>1545</v>
+      </c>
+      <c r="B123" s="58" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="20"/>
       <c r="J123" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22" t="s">
-        <v>1324</v>
-      </c>
-      <c r="M123" s="21"/>
-    </row>
-    <row r="124" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
         <v>1546</v>
       </c>
       <c r="B124" s="60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="22" t="s">
-        <v>941</v>
+        <v>1320</v>
       </c>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
       <c r="J124" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K124" s="22" t="s">
-        <v>1098</v>
-      </c>
+      <c r="K124" s="22"/>
       <c r="L124" s="22" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="M124" s="21"/>
     </row>
-    <row r="125" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
         <v>1546</v>
       </c>
       <c r="B125" s="60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="22" t="s">
-        <v>546</v>
+        <v>705</v>
       </c>
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
       <c r="J125" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K125" s="22" t="s">
-        <v>1099</v>
-      </c>
+      <c r="K125" s="22"/>
       <c r="L125" s="22" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="M125" s="21"/>
     </row>
@@ -30271,41 +31273,43 @@
         <v>1546</v>
       </c>
       <c r="B126" s="60" t="s">
-        <v>1479</v>
+        <v>151</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="22" t="s">
-        <v>1480</v>
+        <v>704</v>
       </c>
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
+      <c r="H126" s="22" t="s">
+        <v>418</v>
+      </c>
       <c r="I126" s="21"/>
       <c r="J126" s="20" t="s">
         <v>1252</v>
       </c>
       <c r="K126" s="22"/>
       <c r="L126" s="22" t="s">
-        <v>1481</v>
+        <v>1323</v>
       </c>
       <c r="M126" s="21"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
         <v>1546</v>
       </c>
-      <c r="B127" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>87</v>
+      <c r="B127" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="D127" s="21"/>
-      <c r="E127" s="22" t="s">
-        <v>1452</v>
+      <c r="E127" s="38" t="s">
+        <v>724</v>
       </c>
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
@@ -30315,62 +31319,66 @@
         <v>1252</v>
       </c>
       <c r="K127" s="22"/>
-      <c r="L127" s="23" t="s">
-        <v>1414</v>
+      <c r="L127" s="22" t="s">
+        <v>1324</v>
       </c>
       <c r="M127" s="21"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>1546</v>
       </c>
-      <c r="B128" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>1298</v>
+      <c r="B128" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="D128" s="21"/>
       <c r="E128" s="22" t="s">
-        <v>1483</v>
+        <v>941</v>
       </c>
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
       <c r="J128" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K128" s="22"/>
-      <c r="L128" s="23" t="s">
-        <v>1422</v>
+      <c r="K128" s="22" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L128" s="22" t="s">
+        <v>1325</v>
       </c>
       <c r="M128" s="21"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
         <v>1546</v>
       </c>
-      <c r="B129" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="C129" s="20" t="s">
+      <c r="B129" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="22" t="s">
-        <v>1484</v>
+        <v>546</v>
       </c>
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K129" s="22"/>
+      <c r="K129" s="22" t="s">
+        <v>1099</v>
+      </c>
       <c r="L129" s="22" t="s">
-        <v>1488</v>
+        <v>1326</v>
       </c>
       <c r="M129" s="21"/>
     </row>
@@ -30378,15 +31386,15 @@
       <c r="A130" s="20" t="s">
         <v>1546</v>
       </c>
-      <c r="B130" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C130" s="20" t="s">
+      <c r="B130" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C130" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="22" t="s">
-        <v>1387</v>
+        <v>1480</v>
       </c>
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
@@ -30396,7 +31404,9 @@
         <v>1252</v>
       </c>
       <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
+      <c r="L130" s="22" t="s">
+        <v>1481</v>
+      </c>
       <c r="M130" s="21"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -30404,14 +31414,14 @@
         <v>1546</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="22" t="s">
-        <v>1521</v>
+        <v>1452</v>
       </c>
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
@@ -30421,7 +31431,9 @@
         <v>1252</v>
       </c>
       <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
+      <c r="L131" s="23" t="s">
+        <v>1414</v>
+      </c>
       <c r="M131" s="21"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -30429,14 +31441,14 @@
         <v>1546</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>1298</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="22" t="s">
-        <v>1522</v>
+        <v>1483</v>
       </c>
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
@@ -30446,8 +31458,8 @@
         <v>1252</v>
       </c>
       <c r="K132" s="22"/>
-      <c r="L132" s="22" t="s">
-        <v>31</v>
+      <c r="L132" s="23" t="s">
+        <v>1422</v>
       </c>
       <c r="M132" s="21"/>
     </row>
@@ -30456,14 +31468,14 @@
         <v>1546</v>
       </c>
       <c r="B133" s="58" t="s">
-        <v>1482</v>
+        <v>301</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="22" t="s">
-        <v>1523</v>
+        <v>1484</v>
       </c>
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
@@ -30474,7 +31486,7 @@
       </c>
       <c r="K133" s="22"/>
       <c r="L133" s="22" t="s">
-        <v>17</v>
+        <v>1488</v>
       </c>
       <c r="M133" s="21"/>
     </row>
@@ -30483,14 +31495,14 @@
         <v>1546</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="22" t="s">
-        <v>1524</v>
+        <v>1387</v>
       </c>
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
@@ -30508,14 +31520,14 @@
         <v>1546</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D135" s="21"/>
-      <c r="E135" s="26" t="s">
-        <v>1008</v>
+      <c r="E135" s="22" t="s">
+        <v>1521</v>
       </c>
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
@@ -30525,9 +31537,7 @@
         <v>1252</v>
       </c>
       <c r="K135" s="22"/>
-      <c r="L135" s="21" t="s">
-        <v>1485</v>
-      </c>
+      <c r="L135" s="22"/>
       <c r="M135" s="21"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -30535,14 +31545,14 @@
         <v>1546</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>113</v>
+        <v>1298</v>
       </c>
       <c r="D136" s="21"/>
-      <c r="E136" s="26" t="s">
-        <v>1760</v>
+      <c r="E136" s="22" t="s">
+        <v>1522</v>
       </c>
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
@@ -30552,7 +31562,9 @@
         <v>1252</v>
       </c>
       <c r="K136" s="22"/>
-      <c r="L136" s="21"/>
+      <c r="L136" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="M136" s="21"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -30560,14 +31572,14 @@
         <v>1546</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>95</v>
+        <v>1482</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="22" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
@@ -30577,7 +31589,9 @@
         <v>1252</v>
       </c>
       <c r="K137" s="22"/>
-      <c r="L137" s="22"/>
+      <c r="L137" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="M137" s="21"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -30585,14 +31599,14 @@
         <v>1546</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D138" s="21"/>
-      <c r="E138" s="26" t="s">
-        <v>841</v>
+      <c r="E138" s="22" t="s">
+        <v>1524</v>
       </c>
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
@@ -30602,24 +31616,22 @@
         <v>1252</v>
       </c>
       <c r="K138" s="22"/>
-      <c r="L138" s="22" t="s">
-        <v>1486</v>
-      </c>
+      <c r="L138" s="22"/>
       <c r="M138" s="21"/>
     </row>
-    <row r="139" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
         <v>1546</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D139" s="21"/>
       <c r="E139" s="26" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
@@ -30629,8 +31641,8 @@
         <v>1252</v>
       </c>
       <c r="K139" s="22"/>
-      <c r="L139" s="22" t="s">
-        <v>1487</v>
+      <c r="L139" s="21" t="s">
+        <v>1485</v>
       </c>
       <c r="M139" s="21"/>
     </row>
@@ -30639,14 +31651,14 @@
         <v>1546</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D140" s="21"/>
-      <c r="E140" s="22" t="s">
-        <v>1526</v>
+      <c r="E140" s="26" t="s">
+        <v>1760</v>
       </c>
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
@@ -30656,7 +31668,7 @@
         <v>1252</v>
       </c>
       <c r="K140" s="22"/>
-      <c r="L140" s="22"/>
+      <c r="L140" s="21"/>
       <c r="M140" s="21"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -30664,14 +31676,14 @@
         <v>1546</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D141" s="21"/>
       <c r="E141" s="22" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
@@ -30689,14 +31701,14 @@
         <v>1546</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C142" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D142" s="21"/>
-      <c r="E142" s="22" t="s">
-        <v>781</v>
+      <c r="E142" s="26" t="s">
+        <v>841</v>
       </c>
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
@@ -30706,22 +31718,24 @@
         <v>1252</v>
       </c>
       <c r="K142" s="22"/>
-      <c r="L142" s="22"/>
+      <c r="L142" s="22" t="s">
+        <v>1486</v>
+      </c>
       <c r="M142" s="21"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>1546</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D143" s="21"/>
-      <c r="E143" s="22" t="s">
-        <v>1550</v>
+      <c r="E143" s="26" t="s">
+        <v>994</v>
       </c>
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
@@ -30731,7 +31745,9 @@
         <v>1252</v>
       </c>
       <c r="K143" s="22"/>
-      <c r="L143" s="22"/>
+      <c r="L143" s="22" t="s">
+        <v>1487</v>
+      </c>
       <c r="M143" s="21"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -30739,14 +31755,14 @@
         <v>1546</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D144" s="21"/>
       <c r="E144" s="22" t="s">
-        <v>1551</v>
+        <v>1526</v>
       </c>
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
@@ -30764,14 +31780,14 @@
         <v>1546</v>
       </c>
       <c r="B145" s="58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D145" s="21"/>
       <c r="E145" s="22" t="s">
-        <v>1552</v>
+        <v>1527</v>
       </c>
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
@@ -30789,14 +31805,14 @@
         <v>1546</v>
       </c>
       <c r="B146" s="58" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D146" s="21"/>
       <c r="E146" s="22" t="s">
-        <v>1553</v>
+        <v>781</v>
       </c>
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
@@ -30814,14 +31830,14 @@
         <v>1546</v>
       </c>
       <c r="B147" s="58" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="22" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
@@ -30838,15 +31854,15 @@
       <c r="A148" s="20" t="s">
         <v>1546</v>
       </c>
-      <c r="B148" s="60" t="s">
-        <v>1728</v>
+      <c r="B148" s="58" t="s">
+        <v>265</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D148" s="21"/>
       <c r="E148" s="22" t="s">
-        <v>1661</v>
+        <v>1551</v>
       </c>
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
@@ -30855,25 +31871,23 @@
       <c r="J148" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K148" s="22" t="s">
-        <v>1726</v>
-      </c>
+      <c r="K148" s="22"/>
       <c r="L148" s="22"/>
       <c r="M148" s="21"/>
     </row>
-    <row r="149" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
         <v>1546</v>
       </c>
       <c r="B149" s="58" t="s">
-        <v>1580</v>
+        <v>268</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D149" s="21"/>
       <c r="E149" s="22" t="s">
-        <v>1662</v>
+        <v>1552</v>
       </c>
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
@@ -30882,9 +31896,7 @@
       <c r="J149" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K149" s="22" t="s">
-        <v>1727</v>
-      </c>
+      <c r="K149" s="22"/>
       <c r="L149" s="22"/>
       <c r="M149" s="21"/>
     </row>
@@ -30893,14 +31905,14 @@
         <v>1546</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>1256</v>
+        <v>298</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D150" s="21"/>
       <c r="E150" s="22" t="s">
-        <v>1452</v>
+        <v>1553</v>
       </c>
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
@@ -30915,17 +31927,17 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B151" s="60" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>87</v>
+        <v>1546</v>
+      </c>
+      <c r="B151" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="22" t="s">
-        <v>1452</v>
+        <v>1554</v>
       </c>
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
@@ -30940,17 +31952,17 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
-        <v>1636</v>
+        <v>1546</v>
       </c>
       <c r="B152" s="60" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>87</v>
+        <v>1728</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D152" s="21"/>
       <c r="E152" s="22" t="s">
-        <v>1480</v>
+        <v>1661</v>
       </c>
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
@@ -30959,52 +31971,52 @@
       <c r="J152" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22" t="s">
-        <v>1376</v>
-      </c>
+      <c r="K152" s="22" t="s">
+        <v>1726</v>
+      </c>
+      <c r="L152" s="22"/>
       <c r="M152" s="21"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B153" s="60" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>163</v>
+        <v>1546</v>
+      </c>
+      <c r="B153" s="58" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D153" s="21"/>
       <c r="E153" s="22" t="s">
-        <v>1706</v>
+        <v>1662</v>
       </c>
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
-      <c r="H153" s="21" t="s">
-        <v>1575</v>
-      </c>
+      <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K153" s="22"/>
+      <c r="K153" s="22" t="s">
+        <v>1727</v>
+      </c>
       <c r="L153" s="22"/>
       <c r="M153" s="21"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B154" s="60" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>1299</v>
+        <v>1546</v>
+      </c>
+      <c r="B154" s="58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="22" t="s">
-        <v>1664</v>
+        <v>1452</v>
       </c>
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
@@ -31014,9 +32026,7 @@
         <v>1252</v>
       </c>
       <c r="K154" s="22"/>
-      <c r="L154" s="22" t="s">
-        <v>1702</v>
-      </c>
+      <c r="L154" s="22"/>
       <c r="M154" s="21"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -31024,14 +32034,14 @@
         <v>1636</v>
       </c>
       <c r="B155" s="60" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D155" s="21"/>
       <c r="E155" s="22" t="s">
-        <v>1651</v>
+        <v>1452</v>
       </c>
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
@@ -31041,9 +32051,7 @@
         <v>1252</v>
       </c>
       <c r="K155" s="22"/>
-      <c r="L155" s="22" t="s">
-        <v>1703</v>
-      </c>
+      <c r="L155" s="22"/>
       <c r="M155" s="21"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -31051,14 +32059,14 @@
         <v>1636</v>
       </c>
       <c r="B156" s="60" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="22" t="s">
-        <v>1666</v>
+        <v>1480</v>
       </c>
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
@@ -31069,7 +32077,7 @@
       </c>
       <c r="K156" s="22"/>
       <c r="L156" s="22" t="s">
-        <v>1704</v>
+        <v>1376</v>
       </c>
       <c r="M156" s="21"/>
     </row>
@@ -31078,26 +32086,26 @@
         <v>1636</v>
       </c>
       <c r="B157" s="60" t="s">
-        <v>1605</v>
+        <v>1631</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>1299</v>
+        <v>163</v>
       </c>
       <c r="D157" s="21"/>
       <c r="E157" s="22" t="s">
-        <v>1665</v>
+        <v>1706</v>
       </c>
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
+      <c r="H157" s="21" t="s">
+        <v>1575</v>
+      </c>
       <c r="I157" s="21"/>
       <c r="J157" s="20" t="s">
         <v>1252</v>
       </c>
       <c r="K157" s="22"/>
-      <c r="L157" s="22" t="s">
-        <v>1705</v>
-      </c>
+      <c r="L157" s="22"/>
       <c r="M157" s="21"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -31105,14 +32113,14 @@
         <v>1636</v>
       </c>
       <c r="B158" s="60" t="s">
-        <v>1632</v>
+        <v>1602</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D158" s="21"/>
       <c r="E158" s="22" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
@@ -31122,7 +32130,9 @@
         <v>1252</v>
       </c>
       <c r="K158" s="22"/>
-      <c r="L158" s="22"/>
+      <c r="L158" s="22" t="s">
+        <v>1702</v>
+      </c>
       <c r="M158" s="21"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -31130,14 +32140,14 @@
         <v>1636</v>
       </c>
       <c r="B159" s="60" t="s">
-        <v>1633</v>
+        <v>1604</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D159" s="21"/>
       <c r="E159" s="22" t="s">
-        <v>1668</v>
+        <v>1651</v>
       </c>
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
@@ -31147,7 +32157,9 @@
         <v>1252</v>
       </c>
       <c r="K159" s="22"/>
-      <c r="L159" s="22"/>
+      <c r="L159" s="22" t="s">
+        <v>1703</v>
+      </c>
       <c r="M159" s="21"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -31155,14 +32167,14 @@
         <v>1636</v>
       </c>
       <c r="B160" s="60" t="s">
-        <v>1634</v>
+        <v>1603</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D160" s="21"/>
       <c r="E160" s="22" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
@@ -31172,7 +32184,9 @@
         <v>1252</v>
       </c>
       <c r="K160" s="22"/>
-      <c r="L160" s="22"/>
+      <c r="L160" s="22" t="s">
+        <v>1704</v>
+      </c>
       <c r="M160" s="21"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -31180,14 +32194,14 @@
         <v>1636</v>
       </c>
       <c r="B161" s="60" t="s">
-        <v>1635</v>
+        <v>1605</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D161" s="21"/>
       <c r="E161" s="22" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
@@ -31197,22 +32211,24 @@
         <v>1252</v>
       </c>
       <c r="K161" s="22"/>
-      <c r="L161" s="22"/>
+      <c r="L161" s="22" t="s">
+        <v>1705</v>
+      </c>
       <c r="M161" s="21"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
-        <v>1753</v>
+        <v>1636</v>
       </c>
       <c r="B162" s="60" t="s">
-        <v>1737</v>
+        <v>1632</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>1738</v>
+        <v>72</v>
       </c>
       <c r="D162" s="21"/>
       <c r="E162" s="22" t="s">
-        <v>1452</v>
+        <v>1667</v>
       </c>
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
@@ -31227,17 +32243,17 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
-        <v>1753</v>
+        <v>1636</v>
       </c>
       <c r="B163" s="60" t="s">
-        <v>1739</v>
+        <v>1633</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>1740</v>
+        <v>72</v>
       </c>
       <c r="D163" s="21"/>
       <c r="E163" s="22" t="s">
-        <v>1451</v>
+        <v>1668</v>
       </c>
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
@@ -31252,17 +32268,17 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
-        <v>1753</v>
+        <v>1636</v>
       </c>
       <c r="B164" s="60" t="s">
-        <v>1741</v>
+        <v>1634</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>1738</v>
+        <v>72</v>
       </c>
       <c r="D164" s="21"/>
       <c r="E164" s="22" t="s">
-        <v>1480</v>
+        <v>1668</v>
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
@@ -31277,17 +32293,17 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>1753</v>
+        <v>1636</v>
       </c>
       <c r="B165" s="60" t="s">
-        <v>1742</v>
+        <v>1635</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>1743</v>
+        <v>72</v>
       </c>
       <c r="D165" s="21"/>
       <c r="E165" s="22" t="s">
-        <v>1926</v>
+        <v>1669</v>
       </c>
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
@@ -31305,14 +32321,14 @@
         <v>1753</v>
       </c>
       <c r="B166" s="60" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="D166" s="21"/>
       <c r="E166" s="22" t="s">
-        <v>1755</v>
+        <v>1452</v>
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
@@ -31330,14 +32346,14 @@
         <v>1753</v>
       </c>
       <c r="B167" s="60" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="D167" s="21"/>
       <c r="E167" s="22" t="s">
-        <v>1757</v>
+        <v>1451</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
@@ -31355,14 +32371,14 @@
         <v>1753</v>
       </c>
       <c r="B168" s="60" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="D168" s="21"/>
       <c r="E168" s="22" t="s">
-        <v>1758</v>
+        <v>1480</v>
       </c>
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
@@ -31380,14 +32396,14 @@
         <v>1753</v>
       </c>
       <c r="B169" s="60" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D169" s="21"/>
       <c r="E169" s="22" t="s">
-        <v>1756</v>
+        <v>1926</v>
       </c>
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
@@ -31405,14 +32421,14 @@
         <v>1753</v>
       </c>
       <c r="B170" s="60" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D170" s="21"/>
       <c r="E170" s="22" t="s">
-        <v>1667</v>
+        <v>1755</v>
       </c>
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
@@ -31430,14 +32446,14 @@
         <v>1753</v>
       </c>
       <c r="B171" s="60" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D171" s="21"/>
       <c r="E171" s="22" t="s">
-        <v>1668</v>
+        <v>1757</v>
       </c>
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
@@ -31455,14 +32471,14 @@
         <v>1753</v>
       </c>
       <c r="B172" s="60" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D172" s="21"/>
       <c r="E172" s="22" t="s">
-        <v>1668</v>
+        <v>1758</v>
       </c>
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
@@ -31480,14 +32496,14 @@
         <v>1753</v>
       </c>
       <c r="B173" s="60" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="22" t="s">
-        <v>1669</v>
+        <v>1756</v>
       </c>
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
@@ -31502,17 +32518,17 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="20" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B174" s="60" t="s">
-        <v>1737</v>
+        <v>1749</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="22" t="s">
-        <v>1452</v>
+        <v>1667</v>
       </c>
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
@@ -31527,17 +32543,17 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="20" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B175" s="60" t="s">
-        <v>1739</v>
+        <v>1750</v>
       </c>
       <c r="C175" s="21" t="s">
         <v>1740</v>
       </c>
       <c r="D175" s="21"/>
       <c r="E175" s="22" t="s">
-        <v>1451</v>
+        <v>1668</v>
       </c>
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
@@ -31552,17 +32568,17 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="20" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B176" s="60" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D176" s="21"/>
       <c r="E176" s="22" t="s">
-        <v>1480</v>
+        <v>1668</v>
       </c>
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
@@ -31577,16 +32593,18 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B177" s="60" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D177" s="21"/>
-      <c r="E177" s="22"/>
+      <c r="E177" s="22" t="s">
+        <v>1669</v>
+      </c>
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
       <c r="H177" s="21"/>
@@ -31603,14 +32621,14 @@
         <v>1754</v>
       </c>
       <c r="B178" s="60" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="D178" s="21"/>
       <c r="E178" s="22" t="s">
-        <v>1755</v>
+        <v>1452</v>
       </c>
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
@@ -31628,14 +32646,14 @@
         <v>1754</v>
       </c>
       <c r="B179" s="60" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="D179" s="21"/>
       <c r="E179" s="22" t="s">
-        <v>1757</v>
+        <v>1451</v>
       </c>
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
@@ -31653,14 +32671,14 @@
         <v>1754</v>
       </c>
       <c r="B180" s="60" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="D180" s="21"/>
       <c r="E180" s="22" t="s">
-        <v>1758</v>
+        <v>1480</v>
       </c>
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
@@ -31678,15 +32696,13 @@
         <v>1754</v>
       </c>
       <c r="B181" s="60" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D181" s="21"/>
-      <c r="E181" s="22" t="s">
-        <v>1756</v>
-      </c>
+      <c r="E181" s="22"/>
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
       <c r="H181" s="21"/>
@@ -31703,14 +32719,14 @@
         <v>1754</v>
       </c>
       <c r="B182" s="60" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D182" s="21"/>
       <c r="E182" s="22" t="s">
-        <v>1667</v>
+        <v>1755</v>
       </c>
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
@@ -31728,14 +32744,14 @@
         <v>1754</v>
       </c>
       <c r="B183" s="60" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="22" t="s">
-        <v>1668</v>
+        <v>1757</v>
       </c>
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
@@ -31753,14 +32769,14 @@
         <v>1754</v>
       </c>
       <c r="B184" s="60" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D184" s="21"/>
       <c r="E184" s="22" t="s">
-        <v>1668</v>
+        <v>1758</v>
       </c>
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
@@ -31778,14 +32794,14 @@
         <v>1754</v>
       </c>
       <c r="B185" s="60" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="22" t="s">
-        <v>1669</v>
+        <v>1756</v>
       </c>
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
@@ -31800,17 +32816,17 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="20" t="s">
-        <v>1637</v>
+        <v>1754</v>
       </c>
       <c r="B186" s="60" t="s">
-        <v>1613</v>
+        <v>1749</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>84</v>
+        <v>1740</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="22" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
@@ -31820,24 +32836,22 @@
         <v>1252</v>
       </c>
       <c r="K186" s="22"/>
-      <c r="L186" s="22" t="s">
-        <v>1701</v>
-      </c>
+      <c r="L186" s="22"/>
       <c r="M186" s="21"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="20" t="s">
-        <v>1637</v>
+        <v>1754</v>
       </c>
       <c r="B187" s="60" t="s">
-        <v>1607</v>
+        <v>1750</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>87</v>
+        <v>1740</v>
       </c>
       <c r="D187" s="21"/>
       <c r="E187" s="22" t="s">
-        <v>1452</v>
+        <v>1668</v>
       </c>
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
@@ -31847,24 +32861,22 @@
         <v>1252</v>
       </c>
       <c r="K187" s="22"/>
-      <c r="L187" s="22" t="s">
-        <v>1720</v>
-      </c>
+      <c r="L187" s="22"/>
       <c r="M187" s="21"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="20" t="s">
-        <v>1637</v>
+        <v>1754</v>
       </c>
       <c r="B188" s="60" t="s">
-        <v>1610</v>
+        <v>1751</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>1298</v>
+        <v>1740</v>
       </c>
       <c r="D188" s="21"/>
       <c r="E188" s="22" t="s">
-        <v>1451</v>
+        <v>1668</v>
       </c>
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
@@ -31874,24 +32886,22 @@
         <v>1252</v>
       </c>
       <c r="K188" s="22"/>
-      <c r="L188" s="22" t="s">
-        <v>1721</v>
-      </c>
+      <c r="L188" s="22"/>
       <c r="M188" s="21"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="20" t="s">
-        <v>1637</v>
+        <v>1754</v>
       </c>
       <c r="B189" s="60" t="s">
-        <v>1615</v>
+        <v>1752</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>87</v>
+        <v>1740</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="22" t="s">
-        <v>1480</v>
+        <v>1669</v>
       </c>
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
@@ -31909,13 +32919,15 @@
         <v>1637</v>
       </c>
       <c r="B190" s="60" t="s">
-        <v>1631</v>
+        <v>1613</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D190" s="21"/>
-      <c r="E190" s="22"/>
+      <c r="E190" s="22" t="s">
+        <v>1670</v>
+      </c>
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
@@ -31924,7 +32936,9 @@
         <v>1252</v>
       </c>
       <c r="K190" s="22"/>
-      <c r="L190" s="22"/>
+      <c r="L190" s="22" t="s">
+        <v>1701</v>
+      </c>
       <c r="M190" s="21"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -31932,14 +32946,14 @@
         <v>1637</v>
       </c>
       <c r="B191" s="60" t="s">
-        <v>1598</v>
+        <v>1607</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D191" s="21"/>
       <c r="E191" s="22" t="s">
-        <v>1671</v>
+        <v>1452</v>
       </c>
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
@@ -31949,7 +32963,9 @@
         <v>1252</v>
       </c>
       <c r="K191" s="22"/>
-      <c r="L191" s="22"/>
+      <c r="L191" s="22" t="s">
+        <v>1720</v>
+      </c>
       <c r="M191" s="21"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -31957,14 +32973,14 @@
         <v>1637</v>
       </c>
       <c r="B192" s="60" t="s">
-        <v>1638</v>
+        <v>1610</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>113</v>
+        <v>1298</v>
       </c>
       <c r="D192" s="21"/>
       <c r="E192" s="22" t="s">
-        <v>1672</v>
+        <v>1451</v>
       </c>
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
@@ -31974,7 +32990,9 @@
         <v>1252</v>
       </c>
       <c r="K192" s="22"/>
-      <c r="L192" s="22"/>
+      <c r="L192" s="22" t="s">
+        <v>1721</v>
+      </c>
       <c r="M192" s="21"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -31982,14 +33000,14 @@
         <v>1637</v>
       </c>
       <c r="B193" s="60" t="s">
-        <v>1600</v>
+        <v>1615</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D193" s="21"/>
       <c r="E193" s="22" t="s">
-        <v>1673</v>
+        <v>1480</v>
       </c>
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
@@ -32007,15 +33025,13 @@
         <v>1637</v>
       </c>
       <c r="B194" s="60" t="s">
-        <v>1602</v>
+        <v>1631</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>1299</v>
+        <v>163</v>
       </c>
       <c r="D194" s="21"/>
-      <c r="E194" s="22" t="s">
-        <v>1664</v>
-      </c>
+      <c r="E194" s="22"/>
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
@@ -32032,14 +33048,14 @@
         <v>1637</v>
       </c>
       <c r="B195" s="60" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="22" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
@@ -32057,14 +33073,14 @@
         <v>1637</v>
       </c>
       <c r="B196" s="60" t="s">
-        <v>1604</v>
+        <v>1638</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="22" t="s">
-        <v>1651</v>
+        <v>1672</v>
       </c>
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
@@ -32082,14 +33098,14 @@
         <v>1637</v>
       </c>
       <c r="B197" s="60" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="C197" s="21" t="s">
         <v>1299</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="22" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
@@ -32104,17 +33120,17 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B198" s="60" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D198" s="21"/>
       <c r="E198" s="22" t="s">
-        <v>1452</v>
+        <v>1664</v>
       </c>
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
@@ -32129,17 +33145,17 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B199" s="60" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D199" s="21"/>
       <c r="E199" s="22" t="s">
-        <v>1451</v>
+        <v>1674</v>
       </c>
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
@@ -32154,17 +33170,17 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B200" s="60" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="22" t="s">
-        <v>1480</v>
+        <v>1651</v>
       </c>
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
@@ -32179,17 +33195,17 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B201" s="60" t="s">
-        <v>1639</v>
+        <v>1605</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D201" s="21"/>
       <c r="E201" s="22" t="s">
-        <v>1454</v>
+        <v>1665</v>
       </c>
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
@@ -32207,14 +33223,14 @@
         <v>1640</v>
       </c>
       <c r="B202" s="60" t="s">
-        <v>1631</v>
+        <v>1607</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="22" t="s">
-        <v>1722</v>
+        <v>1452</v>
       </c>
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
@@ -32232,14 +33248,14 @@
         <v>1640</v>
       </c>
       <c r="B203" s="60" t="s">
-        <v>1602</v>
+        <v>1610</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D203" s="21"/>
       <c r="E203" s="22" t="s">
-        <v>1664</v>
+        <v>1451</v>
       </c>
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
@@ -32257,14 +33273,14 @@
         <v>1640</v>
       </c>
       <c r="B204" s="60" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="22" t="s">
-        <v>1674</v>
+        <v>1480</v>
       </c>
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
@@ -32282,14 +33298,14 @@
         <v>1640</v>
       </c>
       <c r="B205" s="60" t="s">
-        <v>1604</v>
+        <v>1639</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>1299</v>
+        <v>72</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="22" t="s">
-        <v>1651</v>
+        <v>1454</v>
       </c>
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
@@ -32307,14 +33323,14 @@
         <v>1640</v>
       </c>
       <c r="B206" s="60" t="s">
-        <v>1605</v>
+        <v>1631</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>1299</v>
+        <v>163</v>
       </c>
       <c r="D206" s="21"/>
       <c r="E206" s="22" t="s">
-        <v>1665</v>
+        <v>1722</v>
       </c>
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
@@ -32329,17 +33345,17 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B207" s="60" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D207" s="21"/>
       <c r="E207" s="22" t="s">
-        <v>1480</v>
+        <v>1664</v>
       </c>
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
@@ -32354,17 +33370,17 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B208" s="60" t="s">
-        <v>1631</v>
+        <v>1603</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>163</v>
+        <v>1299</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="22" t="s">
-        <v>1480</v>
+        <v>1674</v>
       </c>
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
@@ -32379,17 +33395,17 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B209" s="60" t="s">
-        <v>1632</v>
+        <v>1604</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="22" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
@@ -32404,17 +33420,17 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B210" s="60" t="s">
-        <v>1633</v>
+        <v>1605</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>72</v>
+        <v>1299</v>
       </c>
       <c r="D210" s="21"/>
       <c r="E210" s="22" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
@@ -32432,14 +33448,14 @@
         <v>1641</v>
       </c>
       <c r="B211" s="60" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D211" s="21"/>
       <c r="E211" s="22" t="s">
-        <v>1668</v>
+        <v>1480</v>
       </c>
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
@@ -32457,14 +33473,14 @@
         <v>1641</v>
       </c>
       <c r="B212" s="60" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="22" t="s">
-        <v>1669</v>
+        <v>1480</v>
       </c>
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
@@ -32477,219 +33493,219 @@
       <c r="L212" s="22"/>
       <c r="M212" s="21"/>
     </row>
-    <row r="213" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>1778</v>
+        <v>1641</v>
+      </c>
+      <c r="B213" s="60" t="s">
+        <v>1632</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D213" s="20"/>
-      <c r="E213" s="39" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-      <c r="I213" s="23"/>
-      <c r="J213" s="21" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K213" s="23"/>
-      <c r="L213" s="23"/>
-      <c r="M213" s="23"/>
-    </row>
-    <row r="214" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D213" s="21"/>
+      <c r="E213" s="22" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K213" s="22"/>
+      <c r="L213" s="22"/>
+      <c r="M213" s="21"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B214" s="21" t="s">
-        <v>91</v>
+        <v>1641</v>
+      </c>
+      <c r="B214" s="60" t="s">
+        <v>1633</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D214" s="20"/>
-      <c r="E214" s="23" t="s">
-        <v>1982</v>
-      </c>
-      <c r="F214" s="20"/>
-      <c r="G214" s="20"/>
-      <c r="H214" s="20"/>
-      <c r="I214" s="23"/>
-      <c r="J214" s="21" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K214" s="23"/>
-      <c r="L214" s="23"/>
-      <c r="M214" s="23"/>
-    </row>
-    <row r="215" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D214" s="21"/>
+      <c r="E214" s="22" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K214" s="22"/>
+      <c r="L214" s="22"/>
+      <c r="M214" s="21"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B215" s="21" t="s">
-        <v>86</v>
+        <v>1641</v>
+      </c>
+      <c r="B215" s="60" t="s">
+        <v>1634</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D215" s="20"/>
-      <c r="E215" s="23" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-      <c r="I215" s="23"/>
-      <c r="J215" s="21" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K215" s="23"/>
-      <c r="L215" s="23"/>
-      <c r="M215" s="23"/>
-    </row>
-    <row r="216" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D215" s="21"/>
+      <c r="E215" s="22" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K215" s="22"/>
+      <c r="L215" s="22"/>
+      <c r="M215" s="21"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B216" s="21" t="s">
-        <v>1256</v>
+        <v>1641</v>
+      </c>
+      <c r="B216" s="60" t="s">
+        <v>1635</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D216" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="D216" s="21"/>
       <c r="E216" s="22" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
-      <c r="I216" s="23"/>
-      <c r="J216" s="21" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K216" s="23"/>
-      <c r="L216" s="23"/>
-      <c r="M216" s="23"/>
-    </row>
-    <row r="217" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1669</v>
+      </c>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K216" s="22"/>
+      <c r="L216" s="22"/>
+      <c r="M216" s="21"/>
+    </row>
+    <row r="217" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>88</v>
+        <v>1778</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D217" s="21"/>
-      <c r="E217" s="22" t="s">
-        <v>797</v>
-      </c>
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="D217" s="20"/>
+      <c r="E217" s="39" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="23"/>
       <c r="J217" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="K217" s="22"/>
-      <c r="L217" s="22"/>
-      <c r="M217" s="22"/>
-    </row>
-    <row r="218" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K217" s="23"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="23"/>
+    </row>
+    <row r="218" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D218" s="21"/>
-      <c r="E218" s="22" t="s">
-        <v>781</v>
-      </c>
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
-      <c r="I218" s="22"/>
+        <v>87</v>
+      </c>
+      <c r="D218" s="20"/>
+      <c r="E218" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="23"/>
       <c r="J218" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="K218" s="22"/>
-      <c r="L218" s="22"/>
-      <c r="M218" s="22"/>
-    </row>
-    <row r="219" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K218" s="23"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="23"/>
+    </row>
+    <row r="219" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D219" s="21"/>
-      <c r="E219" s="22" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="21"/>
-      <c r="I219" s="22"/>
+        <v>87</v>
+      </c>
+      <c r="D219" s="20"/>
+      <c r="E219" s="23" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="23"/>
       <c r="J219" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="K219" s="22"/>
-      <c r="L219" s="22"/>
-      <c r="M219" s="22"/>
-    </row>
-    <row r="220" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K219" s="23"/>
+      <c r="L219" s="23"/>
+      <c r="M219" s="23"/>
+    </row>
+    <row r="220" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>83</v>
+        <v>1256</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D220" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="D220" s="20"/>
       <c r="E220" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="21"/>
-      <c r="I220" s="22"/>
+        <v>1287</v>
+      </c>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="23"/>
       <c r="J220" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="K220" s="22"/>
-      <c r="L220" s="22"/>
-      <c r="M220" s="22"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
     </row>
     <row r="221" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>1801</v>
+        <v>88</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="22" t="s">
-        <v>1910</v>
+        <v>797</v>
       </c>
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
@@ -32707,14 +33723,14 @@
         <v>1818</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>1802</v>
+        <v>221</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>87</v>
+        <v>1643</v>
       </c>
       <c r="D222" s="21"/>
       <c r="E222" s="22" t="s">
-        <v>1925</v>
+        <v>781</v>
       </c>
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
@@ -32732,14 +33748,14 @@
         <v>1818</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>1803</v>
+        <v>222</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>87</v>
+        <v>1643</v>
       </c>
       <c r="D223" s="21"/>
       <c r="E223" s="22" t="s">
-        <v>1826</v>
+        <v>1524</v>
       </c>
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
@@ -32757,14 +33773,14 @@
         <v>1818</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>1804</v>
+        <v>83</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D224" s="21"/>
       <c r="E224" s="22" t="s">
-        <v>1827</v>
+        <v>522</v>
       </c>
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
@@ -32782,14 +33798,14 @@
         <v>1818</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D225" s="21"/>
       <c r="E225" s="22" t="s">
-        <v>1828</v>
+        <v>1910</v>
       </c>
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
@@ -32807,14 +33823,14 @@
         <v>1818</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="22" t="s">
-        <v>1829</v>
+        <v>1925</v>
       </c>
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
@@ -32832,14 +33848,14 @@
         <v>1818</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>1497</v>
+        <v>1803</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D227" s="21"/>
-      <c r="E227" s="39" t="s">
-        <v>1797</v>
+      <c r="E227" s="22" t="s">
+        <v>1826</v>
       </c>
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
@@ -32857,14 +33873,14 @@
         <v>1818</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>135</v>
+        <v>1804</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D228" s="21"/>
       <c r="E228" s="22" t="s">
-        <v>501</v>
+        <v>1827</v>
       </c>
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
@@ -32882,14 +33898,14 @@
         <v>1818</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>102</v>
+        <v>1805</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="22" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
@@ -32902,19 +33918,19 @@
       <c r="L229" s="22"/>
       <c r="M229" s="22"/>
     </row>
-    <row r="230" spans="1:13" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>98</v>
+        <v>1806</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D230" s="21"/>
-      <c r="E230" s="38" t="s">
-        <v>417</v>
+      <c r="E230" s="22" t="s">
+        <v>1829</v>
       </c>
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
@@ -32932,14 +33948,14 @@
         <v>1818</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>133</v>
+        <v>1497</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>1298</v>
+        <v>1643</v>
       </c>
       <c r="D231" s="21"/>
-      <c r="E231" s="22" t="s">
-        <v>497</v>
+      <c r="E231" s="39" t="s">
+        <v>1797</v>
       </c>
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
@@ -32957,14 +33973,14 @@
         <v>1818</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D232" s="21"/>
       <c r="E232" s="22" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
@@ -32982,14 +33998,14 @@
         <v>1818</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>1807</v>
+        <v>102</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>1643</v>
+        <v>1299</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="22" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
@@ -33002,19 +34018,19 @@
       <c r="L233" s="22"/>
       <c r="M233" s="22"/>
     </row>
-    <row r="234" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>1463</v>
+        <v>98</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="D234" s="21"/>
-      <c r="E234" s="22" t="s">
-        <v>497</v>
+      <c r="E234" s="38" t="s">
+        <v>417</v>
       </c>
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
@@ -33032,14 +34048,14 @@
         <v>1818</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>1808</v>
+        <v>133</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="22" t="s">
-        <v>1905</v>
+        <v>497</v>
       </c>
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
@@ -33052,19 +34068,19 @@
       <c r="L235" s="22"/>
       <c r="M235" s="22"/>
     </row>
-    <row r="236" spans="1:13" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>1809</v>
+        <v>377</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>1825</v>
+        <v>1298</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="22" t="s">
-        <v>1906</v>
+        <v>497</v>
       </c>
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
@@ -33077,19 +34093,19 @@
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
     </row>
-    <row r="237" spans="1:13" s="17" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>85</v>
+        <v>1807</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>84</v>
+        <v>1643</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="22" t="s">
-        <v>388</v>
+        <v>1822</v>
       </c>
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
@@ -33107,14 +34123,14 @@
         <v>1818</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>1810</v>
+        <v>1463</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="D238" s="21"/>
-      <c r="E238" s="39" t="s">
-        <v>1821</v>
+      <c r="E238" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
@@ -33132,14 +34148,14 @@
         <v>1818</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>117</v>
+        <v>1808</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22" t="s">
-        <v>470</v>
+        <v>1905</v>
       </c>
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
@@ -33152,19 +34168,19 @@
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
     </row>
-    <row r="240" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>223</v>
+        <v>1809</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>1643</v>
+        <v>1825</v>
       </c>
       <c r="D240" s="21"/>
       <c r="E240" s="22" t="s">
-        <v>1823</v>
+        <v>1906</v>
       </c>
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
@@ -33177,19 +34193,19 @@
       <c r="L240" s="22"/>
       <c r="M240" s="22"/>
     </row>
-    <row r="241" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" s="17" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>1643</v>
+        <v>84</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="22" t="s">
-        <v>1824</v>
+        <v>388</v>
       </c>
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
@@ -33207,14 +34223,14 @@
         <v>1818</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>225</v>
+        <v>1810</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>87</v>
+        <v>1643</v>
       </c>
       <c r="D242" s="21"/>
-      <c r="E242" s="22" t="s">
-        <v>1476</v>
+      <c r="E242" s="39" t="s">
+        <v>1821</v>
       </c>
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
@@ -33232,14 +34248,14 @@
         <v>1818</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D243" s="21"/>
       <c r="E243" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
@@ -33257,14 +34273,14 @@
         <v>1818</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="22" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
@@ -33282,14 +34298,14 @@
         <v>1818</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>87</v>
+        <v>1643</v>
       </c>
       <c r="D245" s="21"/>
-      <c r="E245" s="39" t="s">
-        <v>463</v>
+      <c r="E245" s="22" t="s">
+        <v>1824</v>
       </c>
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
@@ -33307,14 +34323,14 @@
         <v>1818</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="22" t="s">
-        <v>1950</v>
+        <v>1476</v>
       </c>
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
@@ -33332,14 +34348,14 @@
         <v>1818</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="D247" s="21"/>
-      <c r="E247" s="39" t="s">
-        <v>463</v>
+      <c r="E247" s="22" t="s">
+        <v>474</v>
       </c>
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
@@ -33357,14 +34373,14 @@
         <v>1818</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>1811</v>
+        <v>227</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>1643</v>
       </c>
       <c r="D248" s="21"/>
-      <c r="E248" s="26" t="s">
-        <v>852</v>
+      <c r="E248" s="22" t="s">
+        <v>1831</v>
       </c>
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
@@ -33382,14 +34398,14 @@
         <v>1818</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>1812</v>
+        <v>116</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D249" s="21"/>
-      <c r="E249" s="26" t="s">
-        <v>853</v>
+      <c r="E249" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
@@ -33407,14 +34423,14 @@
         <v>1818</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>1467</v>
+        <v>229</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>250</v>
+        <v>1643</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="22" t="s">
-        <v>443</v>
+        <v>1950</v>
       </c>
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
@@ -33432,14 +34448,14 @@
         <v>1818</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>1298</v>
+        <v>1643</v>
       </c>
       <c r="D251" s="21"/>
-      <c r="E251" s="22" t="s">
-        <v>1832</v>
+      <c r="E251" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
@@ -33457,14 +34473,14 @@
         <v>1818</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>87</v>
+        <v>1643</v>
       </c>
       <c r="D252" s="21"/>
-      <c r="E252" s="22" t="s">
-        <v>1819</v>
+      <c r="E252" s="26" t="s">
+        <v>852</v>
       </c>
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
@@ -33482,14 +34498,14 @@
         <v>1818</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>87</v>
+        <v>1643</v>
       </c>
       <c r="D253" s="21"/>
-      <c r="E253" s="22" t="s">
-        <v>1833</v>
+      <c r="E253" s="26" t="s">
+        <v>853</v>
       </c>
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
@@ -33507,14 +34523,14 @@
         <v>1818</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D254" s="21"/>
       <c r="E254" s="22" t="s">
-        <v>1820</v>
+        <v>443</v>
       </c>
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
@@ -33532,14 +34548,14 @@
         <v>1818</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>1298</v>
       </c>
       <c r="D255" s="21"/>
       <c r="E255" s="22" t="s">
-        <v>1927</v>
+        <v>1832</v>
       </c>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
@@ -33557,14 +34573,14 @@
         <v>1818</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D256" s="21"/>
       <c r="E256" s="22" t="s">
-        <v>1928</v>
+        <v>1819</v>
       </c>
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
@@ -33582,14 +34598,14 @@
         <v>1818</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="22" t="s">
-        <v>1929</v>
+        <v>1833</v>
       </c>
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
@@ -33607,14 +34623,14 @@
         <v>1818</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="22" t="s">
-        <v>1930</v>
+        <v>1820</v>
       </c>
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
@@ -33632,14 +34648,14 @@
         <v>1818</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>1298</v>
       </c>
       <c r="D259" s="21"/>
       <c r="E259" s="22" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
@@ -33648,9 +34664,7 @@
       <c r="J259" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="K259" s="22" t="s">
-        <v>458</v>
-      </c>
+      <c r="K259" s="22"/>
       <c r="L259" s="22"/>
       <c r="M259" s="22"/>
     </row>
@@ -33659,14 +34673,14 @@
         <v>1818</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>1761</v>
+        <v>1815</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D260" s="21"/>
-      <c r="E260" s="38" t="s">
-        <v>1932</v>
+      <c r="E260" s="22" t="s">
+        <v>1928</v>
       </c>
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
@@ -33679,19 +34693,19 @@
       <c r="L260" s="22"/>
       <c r="M260" s="22"/>
     </row>
-    <row r="261" spans="1:13" s="17" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>92</v>
+        <v>1816</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>1643</v>
+        <v>87</v>
       </c>
       <c r="D261" s="21"/>
-      <c r="E261" s="44" t="s">
-        <v>403</v>
+      <c r="E261" s="22" t="s">
+        <v>1929</v>
       </c>
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
@@ -33709,14 +34723,14 @@
         <v>1818</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>162</v>
+        <v>1469</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>1346</v>
+        <v>250</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="22" t="s">
-        <v>1834</v>
+        <v>1930</v>
       </c>
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
@@ -33734,14 +34748,14 @@
         <v>1818</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>1817</v>
+        <v>136</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>1346</v>
+        <v>1298</v>
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="22" t="s">
-        <v>1835</v>
+        <v>1931</v>
       </c>
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
@@ -33750,7 +34764,9 @@
       <c r="J263" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="K263" s="22"/>
+      <c r="K263" s="22" t="s">
+        <v>458</v>
+      </c>
       <c r="L263" s="22"/>
       <c r="M263" s="22"/>
     </row>
@@ -33759,14 +34775,14 @@
         <v>1818</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>1779</v>
+        <v>1761</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>1346</v>
+        <v>1643</v>
       </c>
       <c r="D264" s="21"/>
-      <c r="E264" s="39" t="s">
-        <v>1798</v>
+      <c r="E264" s="38" t="s">
+        <v>1932</v>
       </c>
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
@@ -33779,19 +34795,19 @@
       <c r="L264" s="22"/>
       <c r="M264" s="22"/>
     </row>
-    <row r="265" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" s="17" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>1780</v>
+        <v>92</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>1346</v>
+        <v>1643</v>
       </c>
       <c r="D265" s="21"/>
-      <c r="E265" s="39" t="s">
-        <v>1800</v>
+      <c r="E265" s="44" t="s">
+        <v>403</v>
       </c>
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
@@ -33804,144 +34820,144 @@
       <c r="L265" s="22"/>
       <c r="M265" s="22"/>
     </row>
-    <row r="266" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B266" s="58" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D266" s="20"/>
-      <c r="E266" s="40" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F266" s="20"/>
-      <c r="G266" s="20"/>
-      <c r="H266" s="20"/>
-      <c r="I266" s="20"/>
-      <c r="J266" s="20" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K266" s="23"/>
-      <c r="L266" s="23"/>
-      <c r="M266" s="20"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266" s="21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D266" s="21"/>
+      <c r="E266" s="22" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21"/>
+      <c r="I266" s="22"/>
+      <c r="J266" s="21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K266" s="22"/>
+      <c r="L266" s="22"/>
+      <c r="M266" s="22"/>
+    </row>
+    <row r="267" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B267" s="60" t="s">
-        <v>83</v>
+        <v>1818</v>
+      </c>
+      <c r="B267" s="21" t="s">
+        <v>1817</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>84</v>
+        <v>1346</v>
       </c>
       <c r="D267" s="21"/>
-      <c r="E267" s="20" t="s">
-        <v>687</v>
+      <c r="E267" s="22" t="s">
+        <v>1835</v>
       </c>
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
       <c r="H267" s="21"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="20" t="s">
-        <v>1252</v>
+      <c r="I267" s="22"/>
+      <c r="J267" s="21" t="s">
+        <v>1250</v>
       </c>
       <c r="K267" s="22"/>
       <c r="L267" s="22"/>
-      <c r="M267" s="21"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M267" s="22"/>
+    </row>
+    <row r="268" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B268" s="60" t="s">
-        <v>150</v>
+        <v>1818</v>
+      </c>
+      <c r="B268" s="21" t="s">
+        <v>1779</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>87</v>
+        <v>1346</v>
       </c>
       <c r="D268" s="21"/>
-      <c r="E268" s="22" t="s">
-        <v>1558</v>
+      <c r="E268" s="39" t="s">
+        <v>1798</v>
       </c>
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
       <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="20" t="s">
-        <v>1252</v>
+      <c r="I268" s="22"/>
+      <c r="J268" s="21" t="s">
+        <v>1250</v>
       </c>
       <c r="K268" s="22"/>
       <c r="L268" s="22"/>
-      <c r="M268" s="21"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M268" s="22"/>
+    </row>
+    <row r="269" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B269" s="60" t="s">
-        <v>98</v>
+        <v>1818</v>
+      </c>
+      <c r="B269" s="21" t="s">
+        <v>1780</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>113</v>
+        <v>1346</v>
       </c>
       <c r="D269" s="21"/>
-      <c r="E269" s="23" t="s">
-        <v>1458</v>
+      <c r="E269" s="39" t="s">
+        <v>1800</v>
       </c>
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
       <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="20" t="s">
-        <v>1252</v>
+      <c r="I269" s="22"/>
+      <c r="J269" s="21" t="s">
+        <v>1250</v>
       </c>
       <c r="K269" s="22"/>
       <c r="L269" s="22"/>
-      <c r="M269" s="21"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M269" s="22"/>
+    </row>
+    <row r="270" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
         <v>1887</v>
       </c>
-      <c r="B270" s="60" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C270" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D270" s="21"/>
-      <c r="E270" s="39" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
+      <c r="B270" s="58" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C270" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D270" s="20"/>
+      <c r="E270" s="40" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F270" s="20"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
       <c r="J270" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K270" s="22"/>
-      <c r="L270" s="22"/>
-      <c r="M270" s="21"/>
+      <c r="K270" s="23"/>
+      <c r="L270" s="23"/>
+      <c r="M270" s="20"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="20" t="s">
         <v>1887</v>
       </c>
       <c r="B271" s="60" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D271" s="21"/>
-      <c r="E271" s="22" t="s">
-        <v>497</v>
+      <c r="E271" s="20" t="s">
+        <v>687</v>
       </c>
       <c r="F271" s="21"/>
       <c r="G271" s="21"/>
@@ -33959,14 +34975,14 @@
         <v>1887</v>
       </c>
       <c r="B272" s="60" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D272" s="21"/>
       <c r="E272" s="22" t="s">
-        <v>1452</v>
+        <v>1558</v>
       </c>
       <c r="F272" s="21"/>
       <c r="G272" s="21"/>
@@ -33984,14 +35000,14 @@
         <v>1887</v>
       </c>
       <c r="B273" s="60" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D273" s="21"/>
-      <c r="E273" s="22" t="s">
-        <v>501</v>
+      <c r="E273" s="23" t="s">
+        <v>1458</v>
       </c>
       <c r="F273" s="21"/>
       <c r="G273" s="21"/>
@@ -34009,14 +35025,14 @@
         <v>1887</v>
       </c>
       <c r="B274" s="60" t="s">
-        <v>102</v>
+        <v>1497</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D274" s="21"/>
-      <c r="E274" s="49" t="s">
-        <v>1447</v>
+      <c r="E274" s="39" t="s">
+        <v>1797</v>
       </c>
       <c r="F274" s="21"/>
       <c r="G274" s="21"/>
@@ -34034,14 +35050,14 @@
         <v>1887</v>
       </c>
       <c r="B275" s="60" t="s">
-        <v>1801</v>
+        <v>377</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D275" s="21"/>
       <c r="E275" s="22" t="s">
-        <v>1903</v>
+        <v>497</v>
       </c>
       <c r="F275" s="21"/>
       <c r="G275" s="21"/>
@@ -34059,14 +35075,14 @@
         <v>1887</v>
       </c>
       <c r="B276" s="60" t="s">
-        <v>1803</v>
+        <v>88</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D276" s="21"/>
       <c r="E276" s="22" t="s">
-        <v>1904</v>
+        <v>1452</v>
       </c>
       <c r="F276" s="21"/>
       <c r="G276" s="21"/>
@@ -34084,14 +35100,14 @@
         <v>1887</v>
       </c>
       <c r="B277" s="60" t="s">
-        <v>1808</v>
+        <v>135</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>1299</v>
       </c>
       <c r="D277" s="21"/>
       <c r="E277" s="22" t="s">
-        <v>1905</v>
+        <v>501</v>
       </c>
       <c r="F277" s="21"/>
       <c r="G277" s="21"/>
@@ -34104,19 +35120,19 @@
       <c r="L277" s="22"/>
       <c r="M277" s="21"/>
     </row>
-    <row r="278" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="20" t="s">
         <v>1887</v>
       </c>
       <c r="B278" s="60" t="s">
-        <v>1809</v>
+        <v>102</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>1825</v>
+        <v>1299</v>
       </c>
       <c r="D278" s="21"/>
-      <c r="E278" s="22" t="s">
-        <v>1906</v>
+      <c r="E278" s="49" t="s">
+        <v>1447</v>
       </c>
       <c r="F278" s="21"/>
       <c r="G278" s="21"/>
@@ -34134,14 +35150,14 @@
         <v>1887</v>
       </c>
       <c r="B279" s="60" t="s">
-        <v>116</v>
+        <v>1801</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D279" s="21"/>
-      <c r="E279" s="39" t="s">
-        <v>463</v>
+      <c r="E279" s="22" t="s">
+        <v>1903</v>
       </c>
       <c r="F279" s="21"/>
       <c r="G279" s="21"/>
@@ -34159,14 +35175,14 @@
         <v>1887</v>
       </c>
       <c r="B280" s="60" t="s">
-        <v>86</v>
+        <v>1803</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D280" s="21"/>
       <c r="E280" s="22" t="s">
-        <v>391</v>
+        <v>1904</v>
       </c>
       <c r="F280" s="21"/>
       <c r="G280" s="21"/>
@@ -34184,14 +35200,14 @@
         <v>1887</v>
       </c>
       <c r="B281" s="60" t="s">
-        <v>85</v>
+        <v>1808</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>84</v>
+        <v>1299</v>
       </c>
       <c r="D281" s="21"/>
-      <c r="E281" s="20" t="s">
-        <v>1386</v>
+      <c r="E281" s="22" t="s">
+        <v>1905</v>
       </c>
       <c r="F281" s="21"/>
       <c r="G281" s="21"/>
@@ -34209,20 +35225,18 @@
         <v>1887</v>
       </c>
       <c r="B282" s="60" t="s">
-        <v>162</v>
+        <v>1809</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>163</v>
+        <v>1825</v>
       </c>
       <c r="D282" s="21"/>
       <c r="E282" s="22" t="s">
-        <v>559</v>
+        <v>1906</v>
       </c>
       <c r="F282" s="21"/>
       <c r="G282" s="21"/>
-      <c r="H282" s="21" t="s">
-        <v>560</v>
-      </c>
+      <c r="H282" s="21"/>
       <c r="I282" s="21"/>
       <c r="J282" s="20" t="s">
         <v>1252</v>
@@ -34236,14 +35250,14 @@
         <v>1887</v>
       </c>
       <c r="B283" s="60" t="s">
-        <v>1888</v>
+        <v>116</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D283" s="21"/>
-      <c r="E283" s="22" t="s">
-        <v>1907</v>
+      <c r="E283" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F283" s="21"/>
       <c r="G283" s="21"/>
@@ -34258,17 +35272,17 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="20" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B284" s="60" t="s">
-        <v>1778</v>
+        <v>86</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D284" s="21"/>
-      <c r="E284" s="39" t="s">
-        <v>1798</v>
+      <c r="E284" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
@@ -34283,17 +35297,17 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="20" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B285" s="60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D285" s="21"/>
       <c r="E285" s="20" t="s">
-        <v>687</v>
+        <v>1386</v>
       </c>
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
@@ -34306,23 +35320,25 @@
       <c r="L285" s="22"/>
       <c r="M285" s="21"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A286" s="20" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B286" s="60" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D286" s="21"/>
       <c r="E286" s="22" t="s">
-        <v>1558</v>
+        <v>559</v>
       </c>
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
-      <c r="H286" s="21"/>
+      <c r="H286" s="21" t="s">
+        <v>560</v>
+      </c>
       <c r="I286" s="21"/>
       <c r="J286" s="20" t="s">
         <v>1252</v>
@@ -34333,17 +35349,17 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B287" s="60" t="s">
-        <v>98</v>
+        <v>1888</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D287" s="21"/>
-      <c r="E287" s="23" t="s">
-        <v>1458</v>
+      <c r="E287" s="22" t="s">
+        <v>1907</v>
       </c>
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
@@ -34361,14 +35377,14 @@
         <v>1889</v>
       </c>
       <c r="B288" s="60" t="s">
-        <v>1497</v>
+        <v>1778</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D288" s="21"/>
       <c r="E288" s="39" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
@@ -34386,14 +35402,14 @@
         <v>1889</v>
       </c>
       <c r="B289" s="60" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D289" s="21"/>
-      <c r="E289" s="22" t="s">
-        <v>497</v>
+      <c r="E289" s="20" t="s">
+        <v>687</v>
       </c>
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
@@ -34411,14 +35427,14 @@
         <v>1889</v>
       </c>
       <c r="B290" s="60" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D290" s="21"/>
       <c r="E290" s="22" t="s">
-        <v>1452</v>
+        <v>1558</v>
       </c>
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
@@ -34436,14 +35452,14 @@
         <v>1889</v>
       </c>
       <c r="B291" s="60" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D291" s="21"/>
-      <c r="E291" s="22" t="s">
-        <v>501</v>
+      <c r="E291" s="23" t="s">
+        <v>1458</v>
       </c>
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
@@ -34461,14 +35477,14 @@
         <v>1889</v>
       </c>
       <c r="B292" s="60" t="s">
-        <v>102</v>
+        <v>1497</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D292" s="21"/>
-      <c r="E292" s="22" t="s">
-        <v>1830</v>
+      <c r="E292" s="39" t="s">
+        <v>1797</v>
       </c>
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
@@ -34486,14 +35502,14 @@
         <v>1889</v>
       </c>
       <c r="B293" s="60" t="s">
-        <v>1801</v>
+        <v>377</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D293" s="21"/>
       <c r="E293" s="22" t="s">
-        <v>1910</v>
+        <v>497</v>
       </c>
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
@@ -34511,14 +35527,14 @@
         <v>1889</v>
       </c>
       <c r="B294" s="60" t="s">
-        <v>1803</v>
+        <v>88</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D294" s="21"/>
       <c r="E294" s="22" t="s">
-        <v>1909</v>
+        <v>1452</v>
       </c>
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
@@ -34536,14 +35552,14 @@
         <v>1889</v>
       </c>
       <c r="B295" s="60" t="s">
-        <v>1808</v>
+        <v>135</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>1299</v>
       </c>
       <c r="D295" s="21"/>
       <c r="E295" s="22" t="s">
-        <v>1905</v>
+        <v>501</v>
       </c>
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
@@ -34556,19 +35572,19 @@
       <c r="L295" s="22"/>
       <c r="M295" s="21"/>
     </row>
-    <row r="296" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="20" t="s">
         <v>1889</v>
       </c>
       <c r="B296" s="60" t="s">
-        <v>1809</v>
+        <v>102</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>1825</v>
+        <v>1299</v>
       </c>
       <c r="D296" s="21"/>
       <c r="E296" s="22" t="s">
-        <v>1906</v>
+        <v>1830</v>
       </c>
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
@@ -34586,14 +35602,14 @@
         <v>1889</v>
       </c>
       <c r="B297" s="60" t="s">
-        <v>116</v>
+        <v>1801</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D297" s="21"/>
-      <c r="E297" s="39" t="s">
-        <v>463</v>
+      <c r="E297" s="22" t="s">
+        <v>1910</v>
       </c>
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
@@ -34611,14 +35627,14 @@
         <v>1889</v>
       </c>
       <c r="B298" s="60" t="s">
-        <v>86</v>
+        <v>1803</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D298" s="21"/>
       <c r="E298" s="22" t="s">
-        <v>391</v>
+        <v>1909</v>
       </c>
       <c r="F298" s="21"/>
       <c r="G298" s="21"/>
@@ -34636,14 +35652,14 @@
         <v>1889</v>
       </c>
       <c r="B299" s="60" t="s">
-        <v>85</v>
+        <v>1808</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>84</v>
+        <v>1299</v>
       </c>
       <c r="D299" s="21"/>
-      <c r="E299" s="20" t="s">
-        <v>1386</v>
+      <c r="E299" s="22" t="s">
+        <v>1905</v>
       </c>
       <c r="F299" s="21"/>
       <c r="G299" s="21"/>
@@ -34661,20 +35677,18 @@
         <v>1889</v>
       </c>
       <c r="B300" s="60" t="s">
-        <v>162</v>
+        <v>1809</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>163</v>
+        <v>1825</v>
       </c>
       <c r="D300" s="21"/>
       <c r="E300" s="22" t="s">
-        <v>559</v>
+        <v>1906</v>
       </c>
       <c r="F300" s="21"/>
       <c r="G300" s="21"/>
-      <c r="H300" s="21" t="s">
-        <v>560</v>
-      </c>
+      <c r="H300" s="21"/>
       <c r="I300" s="21"/>
       <c r="J300" s="20" t="s">
         <v>1252</v>
@@ -34688,14 +35702,14 @@
         <v>1889</v>
       </c>
       <c r="B301" s="60" t="s">
-        <v>1888</v>
+        <v>116</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D301" s="21"/>
-      <c r="E301" s="22" t="s">
-        <v>1907</v>
+      <c r="E301" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F301" s="21"/>
       <c r="G301" s="21"/>
@@ -34710,17 +35724,17 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="20" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B302" s="60" t="s">
-        <v>1778</v>
+        <v>86</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D302" s="21"/>
-      <c r="E302" s="39" t="s">
-        <v>1798</v>
+      <c r="E302" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="F302" s="21"/>
       <c r="G302" s="21"/>
@@ -34735,17 +35749,17 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="20" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B303" s="60" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D303" s="21"/>
-      <c r="E303" s="22" t="s">
-        <v>1558</v>
+      <c r="E303" s="20" t="s">
+        <v>1386</v>
       </c>
       <c r="F303" s="21"/>
       <c r="G303" s="21"/>
@@ -34758,23 +35772,25 @@
       <c r="L303" s="22"/>
       <c r="M303" s="21"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A304" s="20" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B304" s="60" t="s">
-        <v>1479</v>
+        <v>162</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="22" t="s">
-        <v>1480</v>
+        <v>559</v>
       </c>
       <c r="F304" s="21"/>
       <c r="G304" s="21"/>
-      <c r="H304" s="21"/>
+      <c r="H304" s="21" t="s">
+        <v>560</v>
+      </c>
       <c r="I304" s="21"/>
       <c r="J304" s="20" t="s">
         <v>1252</v>
@@ -34785,17 +35801,17 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="20" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B305" s="60" t="s">
-        <v>86</v>
+        <v>1888</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D305" s="21"/>
       <c r="E305" s="22" t="s">
-        <v>391</v>
+        <v>1907</v>
       </c>
       <c r="F305" s="21"/>
       <c r="G305" s="21"/>
@@ -34808,25 +35824,23 @@
       <c r="L305" s="22"/>
       <c r="M305" s="21"/>
     </row>
-    <row r="306" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="20" t="s">
         <v>1890</v>
       </c>
       <c r="B306" s="60" t="s">
-        <v>162</v>
+        <v>1778</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D306" s="21"/>
-      <c r="E306" s="22" t="s">
-        <v>559</v>
+      <c r="E306" s="39" t="s">
+        <v>1798</v>
       </c>
       <c r="F306" s="21"/>
       <c r="G306" s="21"/>
-      <c r="H306" s="21" t="s">
-        <v>560</v>
-      </c>
+      <c r="H306" s="21"/>
       <c r="I306" s="21"/>
       <c r="J306" s="20" t="s">
         <v>1252</v>
@@ -34840,14 +35854,14 @@
         <v>1890</v>
       </c>
       <c r="B307" s="60" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D307" s="21"/>
-      <c r="E307" s="23" t="s">
-        <v>1458</v>
+      <c r="E307" s="22" t="s">
+        <v>1558</v>
       </c>
       <c r="F307" s="21"/>
       <c r="G307" s="21"/>
@@ -34865,14 +35879,14 @@
         <v>1890</v>
       </c>
       <c r="B308" s="60" t="s">
-        <v>1497</v>
+        <v>1479</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D308" s="21"/>
-      <c r="E308" s="39" t="s">
-        <v>1797</v>
+      <c r="E308" s="22" t="s">
+        <v>1480</v>
       </c>
       <c r="F308" s="21"/>
       <c r="G308" s="21"/>
@@ -34890,14 +35904,14 @@
         <v>1890</v>
       </c>
       <c r="B309" s="60" t="s">
-        <v>377</v>
+        <v>86</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D309" s="21"/>
       <c r="E309" s="22" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
       <c r="F309" s="21"/>
       <c r="G309" s="21"/>
@@ -34910,23 +35924,25 @@
       <c r="L309" s="22"/>
       <c r="M309" s="21"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A310" s="20" t="s">
         <v>1890</v>
       </c>
       <c r="B310" s="60" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D310" s="21"/>
-      <c r="E310" s="39" t="s">
-        <v>463</v>
+      <c r="E310" s="22" t="s">
+        <v>559</v>
       </c>
       <c r="F310" s="21"/>
       <c r="G310" s="21"/>
-      <c r="H310" s="21"/>
+      <c r="H310" s="21" t="s">
+        <v>560</v>
+      </c>
       <c r="I310" s="21"/>
       <c r="J310" s="20" t="s">
         <v>1252</v>
@@ -34940,14 +35956,14 @@
         <v>1890</v>
       </c>
       <c r="B311" s="60" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D311" s="21"/>
-      <c r="E311" s="22" t="s">
-        <v>1452</v>
+      <c r="E311" s="23" t="s">
+        <v>1458</v>
       </c>
       <c r="F311" s="21"/>
       <c r="G311" s="21"/>
@@ -34965,14 +35981,14 @@
         <v>1890</v>
       </c>
       <c r="B312" s="60" t="s">
-        <v>135</v>
+        <v>1497</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D312" s="21"/>
-      <c r="E312" s="22" t="s">
-        <v>501</v>
+      <c r="E312" s="39" t="s">
+        <v>1797</v>
       </c>
       <c r="F312" s="21"/>
       <c r="G312" s="21"/>
@@ -34990,14 +36006,14 @@
         <v>1890</v>
       </c>
       <c r="B313" s="60" t="s">
-        <v>102</v>
+        <v>377</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>1299</v>
+        <v>72</v>
       </c>
       <c r="D313" s="21"/>
       <c r="E313" s="22" t="s">
-        <v>1830</v>
+        <v>497</v>
       </c>
       <c r="F313" s="21"/>
       <c r="G313" s="21"/>
@@ -35015,14 +36031,14 @@
         <v>1890</v>
       </c>
       <c r="B314" s="60" t="s">
-        <v>1891</v>
+        <v>116</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D314" s="21"/>
-      <c r="E314" s="22" t="s">
-        <v>1919</v>
+      <c r="E314" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
@@ -35040,14 +36056,14 @@
         <v>1890</v>
       </c>
       <c r="B315" s="60" t="s">
-        <v>1892</v>
+        <v>88</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D315" s="21"/>
       <c r="E315" s="22" t="s">
-        <v>1920</v>
+        <v>1452</v>
       </c>
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
@@ -35065,14 +36081,14 @@
         <v>1890</v>
       </c>
       <c r="B316" s="60" t="s">
-        <v>1808</v>
+        <v>135</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>1299</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="22" t="s">
-        <v>1905</v>
+        <v>501</v>
       </c>
       <c r="F316" s="21"/>
       <c r="G316" s="21"/>
@@ -35085,19 +36101,19 @@
       <c r="L316" s="22"/>
       <c r="M316" s="21"/>
     </row>
-    <row r="317" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="20" t="s">
         <v>1890</v>
       </c>
       <c r="B317" s="60" t="s">
-        <v>1809</v>
+        <v>102</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>1299</v>
       </c>
       <c r="D317" s="21"/>
       <c r="E317" s="22" t="s">
-        <v>1906</v>
+        <v>1830</v>
       </c>
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
@@ -35115,14 +36131,14 @@
         <v>1890</v>
       </c>
       <c r="B318" s="60" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>163</v>
+        <v>1299</v>
       </c>
       <c r="D318" s="21"/>
       <c r="E318" s="22" t="s">
-        <v>1907</v>
+        <v>1919</v>
       </c>
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
@@ -35140,14 +36156,14 @@
         <v>1890</v>
       </c>
       <c r="B319" s="60" t="s">
-        <v>1574</v>
+        <v>1892</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>163</v>
+        <v>1299</v>
       </c>
       <c r="D319" s="21"/>
       <c r="E319" s="22" t="s">
-        <v>1911</v>
+        <v>1920</v>
       </c>
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
@@ -35162,17 +36178,17 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="20" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B320" s="60" t="s">
-        <v>1778</v>
+        <v>1808</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>84</v>
+        <v>1299</v>
       </c>
       <c r="D320" s="21"/>
       <c r="E320" s="22" t="s">
-        <v>1798</v>
+        <v>1905</v>
       </c>
       <c r="F320" s="21"/>
       <c r="G320" s="21"/>
@@ -35185,19 +36201,19 @@
       <c r="L320" s="22"/>
       <c r="M320" s="21"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A321" s="20" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B321" s="60" t="s">
-        <v>150</v>
+        <v>1809</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D321" s="21"/>
       <c r="E321" s="22" t="s">
-        <v>1558</v>
+        <v>1906</v>
       </c>
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
@@ -35212,17 +36228,17 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="20" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B322" s="60" t="s">
-        <v>1479</v>
+        <v>1888</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D322" s="21"/>
       <c r="E322" s="22" t="s">
-        <v>1480</v>
+        <v>1907</v>
       </c>
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
@@ -35237,17 +36253,17 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="20" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B323" s="60" t="s">
-        <v>86</v>
+        <v>1574</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D323" s="21"/>
       <c r="E323" s="22" t="s">
-        <v>391</v>
+        <v>1911</v>
       </c>
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
@@ -35265,14 +36281,14 @@
         <v>1893</v>
       </c>
       <c r="B324" s="60" t="s">
-        <v>1489</v>
+        <v>1778</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>1298</v>
+        <v>84</v>
       </c>
       <c r="D324" s="21"/>
       <c r="E324" s="22" t="s">
-        <v>1921</v>
+        <v>1798</v>
       </c>
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
@@ -35290,14 +36306,14 @@
         <v>1893</v>
       </c>
       <c r="B325" s="60" t="s">
-        <v>377</v>
+        <v>150</v>
       </c>
       <c r="C325" s="21" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D325" s="21"/>
       <c r="E325" s="22" t="s">
-        <v>497</v>
+        <v>1558</v>
       </c>
       <c r="F325" s="21"/>
       <c r="G325" s="21"/>
@@ -35315,14 +36331,14 @@
         <v>1893</v>
       </c>
       <c r="B326" s="60" t="s">
-        <v>116</v>
+        <v>1479</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D326" s="21"/>
-      <c r="E326" s="39" t="s">
-        <v>463</v>
+      <c r="E326" s="22" t="s">
+        <v>1480</v>
       </c>
       <c r="F326" s="21"/>
       <c r="G326" s="21"/>
@@ -35340,14 +36356,14 @@
         <v>1893</v>
       </c>
       <c r="B327" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D327" s="21"/>
       <c r="E327" s="22" t="s">
-        <v>1452</v>
+        <v>391</v>
       </c>
       <c r="F327" s="21"/>
       <c r="G327" s="21"/>
@@ -35365,14 +36381,14 @@
         <v>1893</v>
       </c>
       <c r="B328" s="60" t="s">
-        <v>1891</v>
+        <v>1489</v>
       </c>
       <c r="C328" s="21" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D328" s="21"/>
       <c r="E328" s="22" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
@@ -35390,14 +36406,14 @@
         <v>1893</v>
       </c>
       <c r="B329" s="60" t="s">
-        <v>1888</v>
+        <v>377</v>
       </c>
       <c r="C329" s="21" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="D329" s="21"/>
       <c r="E329" s="22" t="s">
-        <v>1907</v>
+        <v>497</v>
       </c>
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
@@ -35415,14 +36431,14 @@
         <v>1893</v>
       </c>
       <c r="B330" s="60" t="s">
-        <v>1574</v>
+        <v>116</v>
       </c>
       <c r="C330" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D330" s="21"/>
-      <c r="E330" s="22" t="s">
-        <v>1911</v>
+      <c r="E330" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
@@ -35437,17 +36453,17 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B331" s="60" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D331" s="21"/>
       <c r="E331" s="22" t="s">
-        <v>1558</v>
+        <v>1452</v>
       </c>
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
@@ -35462,17 +36478,17 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B332" s="60" t="s">
-        <v>1479</v>
+        <v>1891</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D332" s="21"/>
       <c r="E332" s="22" t="s">
-        <v>1480</v>
+        <v>1919</v>
       </c>
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
@@ -35487,17 +36503,17 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B333" s="60" t="s">
-        <v>377</v>
+        <v>1888</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="D333" s="21"/>
       <c r="E333" s="22" t="s">
-        <v>497</v>
+        <v>1907</v>
       </c>
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
@@ -35512,17 +36528,17 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B334" s="60" t="s">
-        <v>116</v>
+        <v>1574</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D334" s="21"/>
-      <c r="E334" s="39" t="s">
-        <v>463</v>
+      <c r="E334" s="22" t="s">
+        <v>1911</v>
       </c>
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
@@ -35540,14 +36556,14 @@
         <v>1894</v>
       </c>
       <c r="B335" s="60" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D335" s="21"/>
       <c r="E335" s="22" t="s">
-        <v>1452</v>
+        <v>1558</v>
       </c>
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
@@ -35565,14 +36581,14 @@
         <v>1894</v>
       </c>
       <c r="B336" s="60" t="s">
-        <v>1895</v>
+        <v>1479</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D336" s="21"/>
       <c r="E336" s="22" t="s">
-        <v>1917</v>
+        <v>1480</v>
       </c>
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
@@ -35590,14 +36606,14 @@
         <v>1894</v>
       </c>
       <c r="B337" s="60" t="s">
-        <v>1896</v>
+        <v>377</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D337" s="21"/>
       <c r="E337" s="22" t="s">
-        <v>1918</v>
+        <v>497</v>
       </c>
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
@@ -35615,14 +36631,14 @@
         <v>1894</v>
       </c>
       <c r="B338" s="60" t="s">
-        <v>1897</v>
+        <v>116</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D338" s="21"/>
-      <c r="E338" s="22" t="s">
-        <v>1915</v>
+      <c r="E338" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
@@ -35640,14 +36656,14 @@
         <v>1894</v>
       </c>
       <c r="B339" s="60" t="s">
-        <v>1898</v>
+        <v>88</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D339" s="21"/>
       <c r="E339" s="22" t="s">
-        <v>1914</v>
+        <v>1452</v>
       </c>
       <c r="F339" s="21"/>
       <c r="G339" s="21"/>
@@ -35665,14 +36681,14 @@
         <v>1894</v>
       </c>
       <c r="B340" s="60" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>1299</v>
+        <v>84</v>
       </c>
       <c r="D340" s="21"/>
       <c r="E340" s="22" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="F340" s="21"/>
       <c r="G340" s="21"/>
@@ -35690,14 +36706,14 @@
         <v>1894</v>
       </c>
       <c r="B341" s="60" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>1299</v>
+        <v>84</v>
       </c>
       <c r="D341" s="21"/>
       <c r="E341" s="22" t="s">
-        <v>1912</v>
+        <v>1918</v>
       </c>
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
@@ -35715,14 +36731,14 @@
         <v>1894</v>
       </c>
       <c r="B342" s="60" t="s">
-        <v>1412</v>
+        <v>1897</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>1299</v>
+        <v>84</v>
       </c>
       <c r="D342" s="21"/>
       <c r="E342" s="22" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
@@ -35740,14 +36756,14 @@
         <v>1894</v>
       </c>
       <c r="B343" s="60" t="s">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D343" s="21"/>
       <c r="E343" s="22" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
@@ -35765,14 +36781,14 @@
         <v>1894</v>
       </c>
       <c r="B344" s="60" t="s">
-        <v>1574</v>
+        <v>1899</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>163</v>
+        <v>1299</v>
       </c>
       <c r="D344" s="21"/>
       <c r="E344" s="22" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
@@ -35787,17 +36803,17 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="20" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="B345" s="60" t="s">
-        <v>86</v>
+        <v>1900</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D345" s="21"/>
       <c r="E345" s="22" t="s">
-        <v>391</v>
+        <v>1912</v>
       </c>
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
@@ -35812,17 +36828,17 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="20" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="B346" s="60" t="s">
-        <v>1844</v>
+        <v>1412</v>
       </c>
       <c r="C346" s="21" t="s">
-        <v>87</v>
+        <v>1299</v>
       </c>
       <c r="D346" s="21"/>
       <c r="E346" s="22" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
@@ -35837,17 +36853,17 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="20" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="B347" s="60" t="s">
-        <v>88</v>
+        <v>1888</v>
       </c>
       <c r="C347" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D347" s="21"/>
       <c r="E347" s="22" t="s">
-        <v>1924</v>
+        <v>1907</v>
       </c>
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
@@ -35862,17 +36878,17 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="20" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="B348" s="60" t="s">
-        <v>153</v>
+        <v>1574</v>
       </c>
       <c r="C348" s="21" t="s">
-        <v>1298</v>
+        <v>163</v>
       </c>
       <c r="D348" s="21"/>
       <c r="E348" s="22" t="s">
-        <v>1451</v>
+        <v>1911</v>
       </c>
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
@@ -35890,14 +36906,14 @@
         <v>1901</v>
       </c>
       <c r="B349" s="60" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D349" s="21"/>
       <c r="E349" s="22" t="s">
-        <v>1558</v>
+        <v>391</v>
       </c>
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
@@ -35915,14 +36931,14 @@
         <v>1901</v>
       </c>
       <c r="B350" s="60" t="s">
-        <v>1479</v>
+        <v>1844</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D350" s="21"/>
       <c r="E350" s="22" t="s">
-        <v>1480</v>
+        <v>1922</v>
       </c>
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
@@ -35940,14 +36956,14 @@
         <v>1901</v>
       </c>
       <c r="B351" s="60" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D351" s="21"/>
-      <c r="E351" s="39" t="s">
-        <v>463</v>
+      <c r="E351" s="22" t="s">
+        <v>1924</v>
       </c>
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
@@ -35965,14 +36981,14 @@
         <v>1901</v>
       </c>
       <c r="B352" s="60" t="s">
-        <v>377</v>
+        <v>153</v>
       </c>
       <c r="C352" s="21" t="s">
-        <v>72</v>
+        <v>1298</v>
       </c>
       <c r="D352" s="21"/>
       <c r="E352" s="22" t="s">
-        <v>497</v>
+        <v>1451</v>
       </c>
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
@@ -35990,14 +37006,14 @@
         <v>1901</v>
       </c>
       <c r="B353" s="60" t="s">
-        <v>1891</v>
+        <v>150</v>
       </c>
       <c r="C353" s="21" t="s">
-        <v>1299</v>
+        <v>87</v>
       </c>
       <c r="D353" s="21"/>
       <c r="E353" s="22" t="s">
-        <v>1919</v>
+        <v>1558</v>
       </c>
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
@@ -36015,14 +37031,14 @@
         <v>1901</v>
       </c>
       <c r="B354" s="60" t="s">
-        <v>1895</v>
+        <v>1479</v>
       </c>
       <c r="C354" s="21" t="s">
-        <v>1298</v>
+        <v>87</v>
       </c>
       <c r="D354" s="21"/>
       <c r="E354" s="22" t="s">
-        <v>1917</v>
+        <v>1480</v>
       </c>
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
@@ -36040,14 +37056,14 @@
         <v>1901</v>
       </c>
       <c r="B355" s="60" t="s">
-        <v>1888</v>
+        <v>116</v>
       </c>
       <c r="C355" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D355" s="21"/>
-      <c r="E355" s="22" t="s">
-        <v>1907</v>
+      <c r="E355" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
@@ -36065,14 +37081,14 @@
         <v>1901</v>
       </c>
       <c r="B356" s="60" t="s">
-        <v>1574</v>
+        <v>377</v>
       </c>
       <c r="C356" s="21" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="D356" s="21"/>
       <c r="E356" s="22" t="s">
-        <v>1911</v>
+        <v>497</v>
       </c>
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
@@ -36087,17 +37103,17 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B357" s="60" t="s">
-        <v>198</v>
+        <v>1891</v>
       </c>
       <c r="C357" s="21" t="s">
-        <v>84</v>
+        <v>1299</v>
       </c>
       <c r="D357" s="21"/>
       <c r="E357" s="22" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="F357" s="21"/>
       <c r="G357" s="21"/>
@@ -36112,17 +37128,17 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B358" s="60" t="s">
-        <v>1778</v>
+        <v>1895</v>
       </c>
       <c r="C358" s="21" t="s">
-        <v>84</v>
+        <v>1298</v>
       </c>
       <c r="D358" s="21"/>
       <c r="E358" s="22" t="s">
-        <v>1798</v>
+        <v>1917</v>
       </c>
       <c r="F358" s="21"/>
       <c r="G358" s="21"/>
@@ -36137,17 +37153,17 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="20" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B359" s="60" t="s">
-        <v>150</v>
+        <v>1888</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D359" s="21"/>
       <c r="E359" s="22" t="s">
-        <v>1558</v>
+        <v>1907</v>
       </c>
       <c r="F359" s="21"/>
       <c r="G359" s="21"/>
@@ -36162,17 +37178,17 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="20" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B360" s="60" t="s">
-        <v>1479</v>
+        <v>1574</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D360" s="21"/>
       <c r="E360" s="22" t="s">
-        <v>1480</v>
+        <v>1911</v>
       </c>
       <c r="F360" s="21"/>
       <c r="G360" s="21"/>
@@ -36190,14 +37206,14 @@
         <v>1902</v>
       </c>
       <c r="B361" s="60" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D361" s="21"/>
       <c r="E361" s="22" t="s">
-        <v>391</v>
+        <v>1923</v>
       </c>
       <c r="F361" s="21"/>
       <c r="G361" s="21"/>
@@ -36215,14 +37231,14 @@
         <v>1902</v>
       </c>
       <c r="B362" s="60" t="s">
-        <v>377</v>
+        <v>1778</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D362" s="21"/>
       <c r="E362" s="22" t="s">
-        <v>497</v>
+        <v>1798</v>
       </c>
       <c r="F362" s="21"/>
       <c r="G362" s="21"/>
@@ -36240,14 +37256,14 @@
         <v>1902</v>
       </c>
       <c r="B363" s="60" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D363" s="21"/>
-      <c r="E363" s="39" t="s">
-        <v>463</v>
+      <c r="E363" s="22" t="s">
+        <v>1558</v>
       </c>
       <c r="F363" s="21"/>
       <c r="G363" s="21"/>
@@ -36265,14 +37281,14 @@
         <v>1902</v>
       </c>
       <c r="B364" s="60" t="s">
-        <v>1844</v>
+        <v>1479</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D364" s="21"/>
       <c r="E364" s="22" t="s">
-        <v>1922</v>
+        <v>1480</v>
       </c>
       <c r="F364" s="21"/>
       <c r="G364" s="21"/>
@@ -36290,14 +37306,14 @@
         <v>1902</v>
       </c>
       <c r="B365" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D365" s="21"/>
       <c r="E365" s="22" t="s">
-        <v>1924</v>
+        <v>391</v>
       </c>
       <c r="F365" s="21"/>
       <c r="G365" s="21"/>
@@ -36315,14 +37331,14 @@
         <v>1902</v>
       </c>
       <c r="B366" s="60" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>1298</v>
+        <v>72</v>
       </c>
       <c r="D366" s="21"/>
       <c r="E366" s="22" t="s">
-        <v>1451</v>
+        <v>497</v>
       </c>
       <c r="F366" s="21"/>
       <c r="G366" s="21"/>
@@ -36340,14 +37356,14 @@
         <v>1902</v>
       </c>
       <c r="B367" s="60" t="s">
-        <v>1888</v>
+        <v>116</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D367" s="21"/>
-      <c r="E367" s="22" t="s">
-        <v>1907</v>
+      <c r="E367" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="F367" s="21"/>
       <c r="G367" s="21"/>
@@ -36365,14 +37381,14 @@
         <v>1902</v>
       </c>
       <c r="B368" s="60" t="s">
-        <v>1574</v>
+        <v>1844</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D368" s="21"/>
       <c r="E368" s="22" t="s">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="F368" s="21"/>
       <c r="G368" s="21"/>
@@ -36385,48 +37401,44 @@
       <c r="L368" s="22"/>
       <c r="M368" s="21"/>
     </row>
-    <row r="369" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="20" t="s">
-        <v>1985</v>
+        <v>1902</v>
       </c>
       <c r="B369" s="60" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>1298</v>
+        <v>87</v>
       </c>
       <c r="D369" s="21"/>
-      <c r="E369" s="23" t="s">
-        <v>605</v>
+      <c r="E369" s="22" t="s">
+        <v>1924</v>
       </c>
       <c r="F369" s="21"/>
       <c r="G369" s="21"/>
       <c r="H369" s="21"/>
-      <c r="I369" s="22"/>
+      <c r="I369" s="21"/>
       <c r="J369" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K369" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="L369" s="22" t="s">
-        <v>608</v>
-      </c>
+      <c r="K369" s="22"/>
+      <c r="L369" s="22"/>
       <c r="M369" s="21"/>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="20" t="s">
-        <v>1985</v>
+        <v>1902</v>
       </c>
       <c r="B370" s="60" t="s">
-        <v>377</v>
+        <v>153</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>1298</v>
       </c>
       <c r="D370" s="21"/>
       <c r="E370" s="22" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="F370" s="21"/>
       <c r="G370" s="21"/>
@@ -36441,47 +37453,47 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="20" t="s">
-        <v>1985</v>
+        <v>1902</v>
       </c>
       <c r="B371" s="60" t="s">
-        <v>285</v>
+        <v>1888</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="D371" s="21"/>
       <c r="E371" s="22" t="s">
-        <v>596</v>
+        <v>1907</v>
       </c>
       <c r="F371" s="21"/>
       <c r="G371" s="21"/>
       <c r="H371" s="21"/>
-      <c r="I371" s="22"/>
+      <c r="I371" s="21"/>
       <c r="J371" s="20" t="s">
         <v>1252</v>
       </c>
       <c r="K371" s="22"/>
       <c r="L371" s="22"/>
-      <c r="M371" s="22"/>
-    </row>
-    <row r="372" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M371" s="21"/>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="20" t="s">
-        <v>1985</v>
+        <v>1902</v>
       </c>
       <c r="B372" s="60" t="s">
-        <v>378</v>
+        <v>1574</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="D372" s="21"/>
       <c r="E372" s="22" t="s">
-        <v>598</v>
+        <v>1911</v>
       </c>
       <c r="F372" s="21"/>
       <c r="G372" s="21"/>
       <c r="H372" s="21"/>
-      <c r="I372" s="22"/>
+      <c r="I372" s="21"/>
       <c r="J372" s="20" t="s">
         <v>1252</v>
       </c>
@@ -36489,19 +37501,19 @@
       <c r="L372" s="22"/>
       <c r="M372" s="21"/>
     </row>
-    <row r="373" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B373" s="60" t="s">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>77</v>
+        <v>1298</v>
       </c>
       <c r="D373" s="21"/>
-      <c r="E373" s="22" t="s">
-        <v>600</v>
+      <c r="E373" s="23" t="s">
+        <v>605</v>
       </c>
       <c r="F373" s="21"/>
       <c r="G373" s="21"/>
@@ -36510,36 +37522,36 @@
       <c r="J373" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K373" s="22"/>
-      <c r="L373" s="22"/>
+      <c r="K373" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="L373" s="22" t="s">
+        <v>608</v>
+      </c>
       <c r="M373" s="21"/>
     </row>
-    <row r="374" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B374" s="60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>1986</v>
+        <v>1298</v>
       </c>
       <c r="D374" s="21"/>
       <c r="E374" s="22" t="s">
-        <v>602</v>
+        <v>1472</v>
       </c>
       <c r="F374" s="21"/>
       <c r="G374" s="21"/>
-      <c r="H374" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="I374" s="22"/>
+      <c r="H374" s="21"/>
+      <c r="I374" s="21"/>
       <c r="J374" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K374" s="22" t="s">
-        <v>603</v>
-      </c>
+      <c r="K374" s="22"/>
       <c r="L374" s="22"/>
       <c r="M374" s="21"/>
     </row>
@@ -36548,37 +37560,39 @@
         <v>1985</v>
       </c>
       <c r="B375" s="60" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>1298</v>
+        <v>90</v>
       </c>
       <c r="D375" s="21"/>
-      <c r="E375" s="22"/>
+      <c r="E375" s="22" t="s">
+        <v>596</v>
+      </c>
       <c r="F375" s="21"/>
       <c r="G375" s="21"/>
       <c r="H375" s="21"/>
-      <c r="I375" s="21"/>
+      <c r="I375" s="22"/>
       <c r="J375" s="20" t="s">
         <v>1252</v>
       </c>
       <c r="K375" s="22"/>
       <c r="L375" s="22"/>
-      <c r="M375" s="21"/>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M375" s="22"/>
+    </row>
+    <row r="376" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A376" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B376" s="60" t="s">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D376" s="21"/>
       <c r="E376" s="22" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F376" s="21"/>
       <c r="G376" s="21"/>
@@ -36587,63 +37601,61 @@
       <c r="J376" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K376" s="22" t="s">
-        <v>1989</v>
-      </c>
+      <c r="K376" s="22"/>
       <c r="L376" s="22"/>
       <c r="M376" s="21"/>
     </row>
-    <row r="377" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B377" s="60" t="s">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="C377" s="21" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="D377" s="21"/>
       <c r="E377" s="22" t="s">
-        <v>1992</v>
+        <v>600</v>
       </c>
       <c r="F377" s="21"/>
       <c r="G377" s="21"/>
-      <c r="H377" s="22" t="s">
-        <v>1991</v>
-      </c>
-      <c r="I377" s="21"/>
+      <c r="H377" s="21"/>
+      <c r="I377" s="22"/>
       <c r="J377" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K377" s="22" t="s">
-        <v>1990</v>
-      </c>
+      <c r="K377" s="22"/>
       <c r="L377" s="22"/>
       <c r="M377" s="21"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B378" s="60" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="C378" s="21" t="s">
-        <v>1298</v>
+        <v>1986</v>
       </c>
       <c r="D378" s="21"/>
       <c r="E378" s="22" t="s">
-        <v>2036</v>
+        <v>602</v>
       </c>
       <c r="F378" s="21"/>
       <c r="G378" s="21"/>
-      <c r="H378" s="21"/>
-      <c r="I378" s="21"/>
+      <c r="H378" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="I378" s="22"/>
       <c r="J378" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K378" s="22"/>
+      <c r="K378" s="22" t="s">
+        <v>603</v>
+      </c>
       <c r="L378" s="22"/>
       <c r="M378" s="21"/>
     </row>
@@ -36652,19 +37664,17 @@
         <v>1985</v>
       </c>
       <c r="B379" s="60" t="s">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="C379" s="21" t="s">
-        <v>74</v>
+        <v>1298</v>
       </c>
       <c r="D379" s="21"/>
-      <c r="E379" s="38" t="s">
-        <v>582</v>
-      </c>
+      <c r="E379" s="22"/>
       <c r="F379" s="21"/>
       <c r="G379" s="21"/>
       <c r="H379" s="21"/>
-      <c r="I379" s="22"/>
+      <c r="I379" s="21"/>
       <c r="J379" s="20" t="s">
         <v>1252</v>
       </c>
@@ -36677,14 +37687,14 @@
         <v>1985</v>
       </c>
       <c r="B380" s="60" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="C380" s="21" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D380" s="21"/>
-      <c r="E380" s="39" t="s">
-        <v>585</v>
+      <c r="E380" s="22" t="s">
+        <v>610</v>
       </c>
       <c r="F380" s="21"/>
       <c r="G380" s="21"/>
@@ -36693,32 +37703,38 @@
       <c r="J380" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K380" s="22"/>
+      <c r="K380" s="22" t="s">
+        <v>1989</v>
+      </c>
       <c r="L380" s="22"/>
       <c r="M380" s="21"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A381" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B381" s="60" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="D381" s="21"/>
       <c r="E381" s="22" t="s">
-        <v>587</v>
+        <v>1992</v>
       </c>
       <c r="F381" s="21"/>
       <c r="G381" s="21"/>
-      <c r="H381" s="21"/>
-      <c r="I381" s="22"/>
+      <c r="H381" s="22" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I381" s="21"/>
       <c r="J381" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K381" s="22"/>
+      <c r="K381" s="22" t="s">
+        <v>1990</v>
+      </c>
       <c r="L381" s="22"/>
       <c r="M381" s="21"/>
     </row>
@@ -36727,19 +37743,19 @@
         <v>1985</v>
       </c>
       <c r="B382" s="60" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>1987</v>
+        <v>1298</v>
       </c>
       <c r="D382" s="21"/>
-      <c r="E382" s="38" t="s">
-        <v>589</v>
+      <c r="E382" s="22" t="s">
+        <v>2036</v>
       </c>
       <c r="F382" s="21"/>
       <c r="G382" s="21"/>
       <c r="H382" s="21"/>
-      <c r="I382" s="22"/>
+      <c r="I382" s="21"/>
       <c r="J382" s="20" t="s">
         <v>1252</v>
       </c>
@@ -36752,14 +37768,14 @@
         <v>1985</v>
       </c>
       <c r="B383" s="60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C383" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D383" s="21"/>
       <c r="E383" s="38" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F383" s="21"/>
       <c r="G383" s="21"/>
@@ -36777,14 +37793,14 @@
         <v>1985</v>
       </c>
       <c r="B384" s="60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>1988</v>
+        <v>74</v>
       </c>
       <c r="D384" s="21"/>
-      <c r="E384" s="38" t="s">
-        <v>591</v>
+      <c r="E384" s="39" t="s">
+        <v>585</v>
       </c>
       <c r="F384" s="21"/>
       <c r="G384" s="21"/>
@@ -36802,19 +37818,19 @@
         <v>1985</v>
       </c>
       <c r="B385" s="60" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D385" s="21"/>
-      <c r="E385" s="23" t="s">
-        <v>622</v>
+      <c r="E385" s="22" t="s">
+        <v>587</v>
       </c>
       <c r="F385" s="21"/>
       <c r="G385" s="21"/>
       <c r="H385" s="21"/>
-      <c r="I385" s="21"/>
+      <c r="I385" s="22"/>
       <c r="J385" s="20" t="s">
         <v>1252</v>
       </c>
@@ -36827,14 +37843,14 @@
         <v>1985</v>
       </c>
       <c r="B386" s="60" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="C386" s="21" t="s">
-        <v>87</v>
+        <v>1987</v>
       </c>
       <c r="D386" s="21"/>
-      <c r="E386" s="22" t="s">
-        <v>1993</v>
+      <c r="E386" s="38" t="s">
+        <v>589</v>
       </c>
       <c r="F386" s="21"/>
       <c r="G386" s="21"/>
@@ -36843,9 +37859,7 @@
       <c r="J386" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K386" s="22" t="s">
-        <v>619</v>
-      </c>
+      <c r="K386" s="22"/>
       <c r="L386" s="22"/>
       <c r="M386" s="21"/>
     </row>
@@ -36854,19 +37868,19 @@
         <v>1985</v>
       </c>
       <c r="B387" s="60" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="D387" s="21"/>
-      <c r="E387" s="22" t="s">
-        <v>1994</v>
+      <c r="E387" s="38" t="s">
+        <v>590</v>
       </c>
       <c r="F387" s="21"/>
       <c r="G387" s="21"/>
       <c r="H387" s="21"/>
-      <c r="I387" s="21"/>
+      <c r="I387" s="22"/>
       <c r="J387" s="20" t="s">
         <v>1252</v>
       </c>
@@ -36879,19 +37893,19 @@
         <v>1985</v>
       </c>
       <c r="B388" s="60" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="C388" s="21" t="s">
-        <v>220</v>
+        <v>1988</v>
       </c>
       <c r="D388" s="21"/>
-      <c r="E388" s="22" t="s">
-        <v>1995</v>
+      <c r="E388" s="38" t="s">
+        <v>591</v>
       </c>
       <c r="F388" s="21"/>
       <c r="G388" s="21"/>
       <c r="H388" s="21"/>
-      <c r="I388" s="21"/>
+      <c r="I388" s="22"/>
       <c r="J388" s="20" t="s">
         <v>1252</v>
       </c>
@@ -36904,69 +37918,172 @@
         <v>1985</v>
       </c>
       <c r="B389" s="60" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="C389" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D389" s="21"/>
       <c r="E389" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F389" s="21"/>
       <c r="G389" s="21"/>
       <c r="H389" s="21"/>
-      <c r="I389" s="22"/>
+      <c r="I389" s="21"/>
       <c r="J389" s="20" t="s">
         <v>1252</v>
       </c>
-      <c r="K389" s="22" t="s">
-        <v>627</v>
-      </c>
+      <c r="K389" s="22"/>
       <c r="L389" s="22"/>
       <c r="M389" s="21"/>
     </row>
-    <row r="390" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="20" t="s">
         <v>1985</v>
       </c>
       <c r="B390" s="60" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C390" s="21" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="D390" s="21"/>
       <c r="E390" s="22" t="s">
-        <v>893</v>
+        <v>1993</v>
       </c>
       <c r="F390" s="21"/>
       <c r="G390" s="21"/>
       <c r="H390" s="21"/>
-      <c r="I390" s="21"/>
+      <c r="I390" s="22"/>
       <c r="J390" s="20" t="s">
         <v>1252</v>
       </c>
       <c r="K390" s="22" t="s">
-        <v>1996</v>
+        <v>619</v>
       </c>
       <c r="L390" s="22"/>
       <c r="M390" s="21"/>
     </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B391" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C391" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D391" s="21"/>
+      <c r="E391" s="22" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F391" s="21"/>
+      <c r="G391" s="21"/>
+      <c r="H391" s="21"/>
+      <c r="I391" s="21"/>
+      <c r="J391" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K391" s="22"/>
+      <c r="L391" s="22"/>
+      <c r="M391" s="21"/>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B392" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C392" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D392" s="21"/>
+      <c r="E392" s="22" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F392" s="21"/>
+      <c r="G392" s="21"/>
+      <c r="H392" s="21"/>
+      <c r="I392" s="21"/>
+      <c r="J392" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K392" s="22"/>
+      <c r="L392" s="22"/>
+      <c r="M392" s="21"/>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B393" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C393" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D393" s="21"/>
+      <c r="E393" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="F393" s="21"/>
+      <c r="G393" s="21"/>
+      <c r="H393" s="21"/>
+      <c r="I393" s="22"/>
+      <c r="J393" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K393" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="L393" s="22"/>
+      <c r="M393" s="21"/>
+    </row>
+    <row r="394" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A394" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B394" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C394" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D394" s="21"/>
+      <c r="E394" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="F394" s="21"/>
+      <c r="G394" s="21"/>
+      <c r="H394" s="21"/>
+      <c r="I394" s="21"/>
+      <c r="J394" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K394" s="22" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L394" s="22"/>
+      <c r="M394" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:M390"/>
+  <autoFilter ref="A3:M394"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1" topLeftCell="A19">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1" topLeftCell="A3">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M390"/>
+      <autoFilter ref="A3:M394"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="78" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M25"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:XFD343"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -36974,12 +38091,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M130"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="78" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A3:XFD343"/>
+      <autoFilter ref="A3:M25"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -37005,11 +38121,11 @@
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -37022,7 +38138,8 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="93" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38617,18 +39734,18 @@
   <autoFilter ref="A2:E95"/>
   <customSheetViews>
     <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <pane ySplit="93" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="92" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:E95"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:E89"/>
+      <autoFilter ref="A2:F123"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
@@ -38637,12 +39754,12 @@
       <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:E100"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:F123"/>
+      <autoFilter ref="A2:E89"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -44257,6 +45374,16 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M197"/>
     </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" topLeftCell="A181">
+      <selection activeCell="B202" sqref="B202"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
+      <pane xSplit="4" ySplit="4" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:M184"/>
+    </customSheetView>
     <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" filter="1" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
@@ -44268,16 +45395,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
-      <pane xSplit="4" ySplit="4" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M184"/>
-    </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" topLeftCell="A181">
-      <selection activeCell="B202" sqref="B202"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -45649,11 +46766,10 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M47"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73" showAutoFilter="1" topLeftCell="A18">
+      <selection activeCell="E35" sqref="E35:K35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M45"/>
+      <autoFilter ref="A3:M47"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
@@ -45661,10 +46777,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M47"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73" showAutoFilter="1" topLeftCell="A18">
-      <selection activeCell="E35" sqref="E35:K35"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M47"/>
+      <autoFilter ref="A3:M45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -45677,7 +46794,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
@@ -51750,19 +52867,19 @@
       <c r="L215" s="22"/>
       <c r="M215" s="22"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
         <v>1886</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>1851</v>
+        <v>2100</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="22" t="s">
-        <v>1939</v>
+        <v>2101</v>
       </c>
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
@@ -51780,14 +52897,14 @@
         <v>1886</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>285</v>
+        <v>1851</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>90</v>
+        <v>1852</v>
       </c>
       <c r="D217" s="21"/>
       <c r="E217" s="22" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
@@ -51805,14 +52922,14 @@
         <v>1886</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>1853</v>
+        <v>90</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="22" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
@@ -51825,19 +52942,19 @@
       <c r="L218" s="22"/>
       <c r="M218" s="22"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
         <v>1886</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>1854</v>
+        <v>377</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>87</v>
+        <v>1298</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="22" t="s">
-        <v>1942</v>
+        <v>2102</v>
       </c>
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
@@ -51855,14 +52972,14 @@
         <v>1886</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>1855</v>
+        <v>98</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>220</v>
+        <v>1853</v>
       </c>
       <c r="D220" s="21"/>
       <c r="E220" s="22" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
@@ -51880,14 +52997,14 @@
         <v>1886</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="22" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
@@ -51905,14 +53022,14 @@
         <v>1886</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="D222" s="21"/>
       <c r="E222" s="22" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
@@ -51930,14 +53047,14 @@
         <v>1886</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="D223" s="21"/>
       <c r="E223" s="22" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
@@ -51955,14 +53072,14 @@
         <v>1886</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D224" s="21"/>
       <c r="E224" s="22" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
@@ -51980,14 +53097,14 @@
         <v>1886</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="D225" s="21"/>
       <c r="E225" s="22" t="s">
-        <v>1908</v>
+        <v>1946</v>
       </c>
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
@@ -52005,14 +53122,14 @@
         <v>1886</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="22" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
@@ -52030,14 +53147,14 @@
         <v>1886</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>231</v>
+        <v>1860</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="22" t="s">
-        <v>1949</v>
+        <v>1908</v>
       </c>
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
@@ -52055,14 +53172,14 @@
         <v>1886</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>229</v>
+        <v>1861</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="D228" s="21"/>
       <c r="E228" s="22" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
@@ -52080,14 +53197,14 @@
         <v>1886</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>1862</v>
+        <v>231</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="22" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
@@ -52105,14 +53222,14 @@
         <v>1886</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>1863</v>
+        <v>229</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="22" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
@@ -52130,14 +53247,14 @@
         <v>1886</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="22" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
@@ -52155,14 +53272,14 @@
         <v>1886</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D232" s="21"/>
       <c r="E232" s="22" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
@@ -52180,14 +53297,14 @@
         <v>1886</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="22" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
@@ -52205,14 +53322,14 @@
         <v>1886</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>92</v>
+        <v>1865</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="22" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
@@ -52225,19 +53342,19 @@
       <c r="L234" s="22"/>
       <c r="M234" s="22"/>
     </row>
-    <row r="235" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
         <v>1886</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="D235" s="21"/>
-      <c r="E235" s="38" t="s">
-        <v>1932</v>
+      <c r="E235" s="22" t="s">
+        <v>1955</v>
       </c>
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
@@ -52255,14 +53372,14 @@
         <v>1886</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="22" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
@@ -52275,19 +53392,19 @@
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
         <v>1886</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D237" s="21"/>
-      <c r="E237" s="22" t="s">
-        <v>1959</v>
+      <c r="E237" s="38" t="s">
+        <v>1932</v>
       </c>
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
@@ -52305,14 +53422,14 @@
         <v>1886</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>1497</v>
+        <v>137</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D238" s="21"/>
-      <c r="E238" s="39" t="s">
-        <v>1797</v>
+      <c r="E238" s="22" t="s">
+        <v>1957</v>
       </c>
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
@@ -52330,14 +53447,14 @@
         <v>1886</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="D239" s="21"/>
-      <c r="E239" s="39" t="s">
-        <v>1958</v>
+      <c r="E239" s="22" t="s">
+        <v>1959</v>
       </c>
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
@@ -52350,19 +53467,19 @@
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
         <v>1886</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>1870</v>
+        <v>2103</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D240" s="21"/>
-      <c r="E240" s="22" t="s">
-        <v>1960</v>
+      <c r="E240" s="39" t="s">
+        <v>1505</v>
       </c>
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
@@ -52380,14 +53497,14 @@
         <v>1886</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>1871</v>
+        <v>1497</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D241" s="21"/>
-      <c r="E241" s="22" t="s">
-        <v>1961</v>
+      <c r="E241" s="39" t="s">
+        <v>1797</v>
       </c>
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
@@ -52405,14 +53522,14 @@
         <v>1886</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D242" s="21"/>
-      <c r="E242" s="22" t="s">
-        <v>1962</v>
+      <c r="E242" s="39" t="s">
+        <v>1958</v>
       </c>
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
@@ -52430,14 +53547,14 @@
         <v>1886</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D243" s="21"/>
       <c r="E243" s="22" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
@@ -52455,14 +53572,14 @@
         <v>1886</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="22" t="s">
-        <v>1832</v>
+        <v>1961</v>
       </c>
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
@@ -52480,14 +53597,14 @@
         <v>1886</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D245" s="21"/>
       <c r="E245" s="22" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
@@ -52505,14 +53622,14 @@
         <v>1886</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="22" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
@@ -52530,14 +53647,14 @@
         <v>1886</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D247" s="21"/>
       <c r="E247" s="22" t="s">
-        <v>1966</v>
+        <v>1832</v>
       </c>
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
@@ -52555,14 +53672,14 @@
         <v>1886</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D248" s="21"/>
       <c r="E248" s="22" t="s">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
@@ -52580,14 +53697,14 @@
         <v>1886</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D249" s="21"/>
       <c r="E249" s="22" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
@@ -52605,14 +53722,14 @@
         <v>1886</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="22" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
@@ -52630,14 +53747,14 @@
         <v>1886</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="22" t="s">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
@@ -52655,14 +53772,14 @@
         <v>1886</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="22" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
@@ -52680,14 +53797,14 @@
         <v>1886</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="22" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
@@ -52705,14 +53822,14 @@
         <v>1886</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D254" s="21"/>
       <c r="E254" s="22" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
@@ -52730,14 +53847,14 @@
         <v>1886</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D255" s="21"/>
       <c r="E255" s="22" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
@@ -52755,14 +53872,14 @@
         <v>1886</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>1778</v>
+        <v>1883</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D256" s="21"/>
-      <c r="E256" s="39" t="s">
-        <v>1798</v>
+      <c r="E256" s="22" t="s">
+        <v>1971</v>
       </c>
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
@@ -52780,14 +53897,14 @@
         <v>1886</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>1808</v>
+        <v>1884</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>1299</v>
+        <v>113</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="22" t="s">
-        <v>1905</v>
+        <v>1972</v>
       </c>
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
@@ -52800,19 +53917,19 @@
       <c r="L257" s="22"/>
       <c r="M257" s="22"/>
     </row>
-    <row r="258" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
         <v>1886</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>1809</v>
+        <v>1885</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>1825</v>
+        <v>113</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="22" t="s">
-        <v>1906</v>
+        <v>1973</v>
       </c>
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
@@ -52825,21 +53942,118 @@
       <c r="L258" s="22"/>
       <c r="M258" s="22"/>
     </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B259" s="21" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C259" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D259" s="21"/>
+      <c r="E259" s="39" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="22"/>
+      <c r="J259" s="21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K259" s="22"/>
+      <c r="L259" s="22"/>
+      <c r="M259" s="22"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B260" s="21" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C260" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D260" s="21"/>
+      <c r="E260" s="39" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="22"/>
+      <c r="J260" s="21" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B261" s="21" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C261" s="21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D261" s="21"/>
+      <c r="E261" s="22" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
+      <c r="I261" s="22"/>
+      <c r="J261" s="21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K261" s="22"/>
+      <c r="L261" s="22"/>
+      <c r="M261" s="22"/>
+    </row>
+    <row r="262" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A262" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B262" s="21" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C262" s="21" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D262" s="21"/>
+      <c r="E262" s="22" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="22"/>
+      <c r="J262" s="21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K262" s="22"/>
+      <c r="L262" s="22"/>
+      <c r="M262" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:M258"/>
+  <autoFilter ref="A4:M262"/>
   <customSheetViews>
     <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
       <selection sqref="A1:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:M258"/>
+      <autoFilter ref="A4:M262"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="65" showAutoFilter="1">
+      <pane xSplit="3" ySplit="4" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B207" sqref="B207:B209"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A4:M159"/>
+      <autoFilter ref="A4:M311"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
@@ -52848,12 +54062,12 @@
       <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A4:M163"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="65" showAutoFilter="1">
-      <pane xSplit="3" ySplit="4" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B207" sqref="B207:B209"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A4:M311"/>
+      <autoFilter ref="A4:M159"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -54488,11 +55702,10 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M57"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="80" showAutoFilter="1" topLeftCell="A42">
+      <selection activeCell="A53" sqref="A53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M45"/>
+      <autoFilter ref="A3:M55"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
@@ -54500,10 +55713,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M48"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="80" showAutoFilter="1" topLeftCell="A42">
-      <selection activeCell="A53" sqref="A53"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M55"/>
+      <autoFilter ref="A3:M45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -56242,12 +57456,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73">
+      <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A3:M21"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -56256,11 +57469,12 @@
       <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M32"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73">
-      <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A3:M21"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -58538,12 +59752,12 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M77"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A3:M76"/>
+      <autoFilter ref="A3:M77"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="76" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
@@ -58552,12 +59766,12 @@
       <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M78"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A3:M77"/>
+      <autoFilter ref="A3:M76"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -61632,8 +62846,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
-      <selection activeCell="K7" sqref="K7"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="85" topLeftCell="A59">
+      <selection activeCell="A82" sqref="A82"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -61642,8 +62856,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="85" topLeftCell="A59">
-      <selection activeCell="A82" sqref="A82"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
+      <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
     </customSheetView>

--- a/checkbook/Data Model/DataDictionary.xlsx
+++ b/checkbook/Data Model/DataDictionary.xlsx
@@ -73,10 +73,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
+    <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
+    <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
     <customWorkbookView name="Pratap Varma - Personal View" guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="2"/>
-    <customWorkbookView name="Pratap Varma Gottumukkala - Personal View" guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="804" activeSheetId="2"/>
-    <customWorkbookView name="athiagarajan - Personal View" guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="11"/>
-    <customWorkbookView name="Kishore K. Vuppala - Personal View" guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -6599,9 +6599,6 @@
     <t>Identifies master contract number</t>
   </si>
   <si>
-    <t>contrac_vendor_id</t>
-  </si>
-  <si>
     <t>contract_agency_id</t>
   </si>
   <si>
@@ -6630,6 +6627,9 @@
   </si>
   <si>
     <t>original_master_agreement_id</t>
+  </si>
+  <si>
+    <t>contract_vendor_id</t>
   </si>
 </sst>
 </file>
@@ -7496,23 +7496,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6976EAB8-6962-447C-98CC-191C3E618C5F}" diskRevisions="1" revisionId="72" version="3">
-  <header guid="{9FF42765-F55B-491A-A86E-ECBF559A637A}" dateTime="2012-12-19T10:49:43" maxSheetId="13" userName="Pratap Varma" r:id="rId1">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CE46221B-07A2-4A29-9CAF-C6E751EDFA6A}" diskRevisions="1" revisionId="73" version="4">
   <header guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" dateTime="2012-12-19T11:23:25" maxSheetId="13" userName="Pratap Varma" r:id="rId2" minRId="1" maxRId="13">
     <sheetIdMap count="12">
       <sheetId val="1"/>
@@ -7545,11 +7529,40 @@
       <sheetId val="12"/>
     </sheetIdMap>
   </header>
+  <header guid="{CE46221B-07A2-4A29-9CAF-C6E751EDFA6A}" dateTime="2013-04-26T17:29:53" maxSheetId="13" userName="Pratap Varma" r:id="rId4" minRId="73">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="73" sId="11">
+    <oc r="B112" t="inlineStr">
+      <is>
+        <t>contrac_vendor_id</t>
+      </is>
+    </oc>
+    <nc r="B112" t="inlineStr">
+      <is>
+        <t>contract_vendor_id</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8747,9 +8760,8 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{5F527EF7-0871-4C5E-9140-A0BEA918F8A1}" name="Pratap Varma" id="-280007288" dateTime="2013-04-09T09:57:01"/>
-  <userInfo guid="{6976EAB8-6962-447C-98CC-191C3E618C5F}" name="Pratap Varma" id="-279991079" dateTime="2013-04-26T16:19:02"/>
 </users>
 </file>
 
@@ -9064,22 +9076,22 @@
     <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}">
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
       <selection sqref="A1:XFD5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
@@ -11651,31 +11663,31 @@
   </sheetData>
   <autoFilter ref="A3:M92"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M92"/>
+      <autoFilter ref="A3:M140"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:M158"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}">
       <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A3:M158"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A3:M140"/>
+      <autoFilter ref="A3:M92"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -11690,8 +11702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD394"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30917,14 +30929,14 @@
         <v>1545</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>2094</v>
+        <v>2104</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>1298</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
@@ -30942,14 +30954,14 @@
         <v>1545</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>1298</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="20" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
@@ -30967,14 +30979,14 @@
         <v>1545</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>1298</v>
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="20" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
@@ -38072,18 +38084,11 @@
   </sheetData>
   <autoFilter ref="A3:M394"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1" topLeftCell="A3">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M394"/>
-    </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="78" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A3:XFD343"/>
+      <autoFilter ref="A3:M25"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -38091,11 +38096,18 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M130"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="78" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="78" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E184" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B207" sqref="B207"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M25"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:XFD343"/>
+    </customSheetView>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1" topLeftCell="A3">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:M394"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -38117,15 +38129,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" state="hidden">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}">
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -38138,7 +38150,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="93" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="92" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -39733,33 +39745,33 @@
   </sheetData>
   <autoFilter ref="A2:E95"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <pane ySplit="92" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:E95"/>
+      <autoFilter ref="A2:E89"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:E100"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" showAutoFilter="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:F123"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:E100"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" showAutoFilter="1">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <pane ySplit="92" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:E89"/>
+      <autoFilter ref="A2:E95"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -45368,22 +45380,6 @@
   </sheetData>
   <autoFilter ref="A3:M197"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M197"/>
-    </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" topLeftCell="A181">
-      <selection activeCell="B202" sqref="B202"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
-      <pane xSplit="4" ySplit="4" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M184"/>
-    </customSheetView>
     <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" filter="1" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
@@ -45395,6 +45391,22 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="75" showAutoFilter="1">
+      <pane xSplit="4" ySplit="4" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:M184"/>
+    </customSheetView>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" topLeftCell="A181">
+      <selection activeCell="B202" sqref="B202"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:M197"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -46760,10 +46772,16 @@
   </sheetData>
   <autoFilter ref="A3:M47"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:M45"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M47"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73" showAutoFilter="1" topLeftCell="A18">
@@ -46771,17 +46789,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M47"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A3:M47"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M45"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -52872,14 +52884,14 @@
         <v>1886</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>1848</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="22" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
@@ -52954,7 +52966,7 @@
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="22" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
@@ -53472,7 +53484,7 @@
         <v>1886</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>113</v>
@@ -53972,7 +53984,7 @@
         <v>1886</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>84</v>
@@ -54042,32 +54054,32 @@
   </sheetData>
   <autoFilter ref="A4:M262"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD3"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:M262"/>
+      <autoFilter ref="A4:M159"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
+      <pane xSplit="3" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD59"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A4:M163"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="65" showAutoFilter="1">
       <pane xSplit="3" ySplit="4" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B207" sqref="B207:B209"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A4:M311"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
-      <pane xSplit="3" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD59"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A4:M163"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="65" showAutoFilter="1">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A4:M159"/>
+      <autoFilter ref="A4:M262"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -55697,15 +55709,11 @@
   </sheetData>
   <autoFilter ref="A3:M57"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M57"/>
-    </customSheetView>
-    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="80" showAutoFilter="1" topLeftCell="A42">
-      <selection activeCell="A53" sqref="A53"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M55"/>
+      <autoFilter ref="A3:M45"/>
     </customSheetView>
     <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" showAutoFilter="1">
       <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
@@ -55713,11 +55721,15 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A3:M48"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="75" showAutoFilter="1">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+    <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="80" showAutoFilter="1" topLeftCell="A42">
+      <selection activeCell="A53" sqref="A53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A3:M45"/>
+      <autoFilter ref="A3:M55"/>
+    </customSheetView>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:M57"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -57451,30 +57463,30 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A3:M21"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:M32"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="73">
       <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="73" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A3:M32"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="73" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A3:M21"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -59746,32 +59758,32 @@
   </sheetData>
   <autoFilter ref="A3:M77"/>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A3:M77"/>
+      <autoFilter ref="A3:M76"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="76" showAutoFilter="1">
+      <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L76" sqref="L76"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A3:M78"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="75" showAutoFilter="1">
       <pane xSplit="4" ySplit="3" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A3:M77"/>
     </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="76" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L76" sqref="L76"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A3:M78"/>
-    </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="76" showAutoFilter="1">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}" showAutoFilter="1">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A3:M76"/>
+      <autoFilter ref="A3:M77"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -62841,23 +62853,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
-      <selection sqref="A1:XFD2"/>
+    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
+      <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="85">
+      <selection activeCell="K7" sqref="K7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{7A86E65E-CCCB-4C01-8F2E-D18114648424}" scale="85" topLeftCell="A59">
       <selection activeCell="A82" sqref="A82"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{843A0AF2-4DBE-48BC-A9DB-1D590AF46394}" scale="85">
-      <selection activeCell="K7" sqref="K7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{F768F977-CCD9-4FD4-A49F-E3B56A4CB470}" scale="85">
-      <selection activeCell="K7" sqref="K7"/>
+    <customSheetView guid="{00C7CAED-15A0-4F6F-B460-E637CABE0590}">
+      <selection sqref="A1:XFD2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
     </customSheetView>
